--- a/assets/Season_Aggregated_Pitcher_Statistics.xlsx
+++ b/assets/Season_Aggregated_Pitcher_Statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="116">
   <si>
     <t>Pitcher</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Albert Suárez</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
   </si>
   <si>
     <t>Martín Pérez</t>
@@ -843,13 +849,13 @@
         <v>0.11</v>
       </c>
       <c r="N2">
-        <v>230</v>
+        <v>23000</v>
       </c>
       <c r="O2">
-        <v>2180</v>
+        <v>218000</v>
       </c>
       <c r="P2">
-        <v>460</v>
+        <v>46000</v>
       </c>
       <c r="Q2">
         <v>0.295</v>
@@ -861,25 +867,25 @@
         <v>3.77</v>
       </c>
       <c r="T2">
-        <v>3550</v>
+        <v>355000</v>
       </c>
       <c r="U2">
-        <v>2420</v>
+        <v>242000</v>
       </c>
       <c r="V2">
-        <v>4030</v>
+        <v>403000</v>
       </c>
       <c r="W2">
-        <v>800</v>
+        <v>80000</v>
       </c>
       <c r="X2">
-        <v>1750</v>
+        <v>175000</v>
       </c>
       <c r="Y2">
-        <v>6190</v>
+        <v>619000</v>
       </c>
       <c r="Z2">
-        <v>2060</v>
+        <v>206000</v>
       </c>
       <c r="AA2" t="s">
         <v>27</v>
@@ -926,13 +932,13 @@
         <v>0.232</v>
       </c>
       <c r="N3">
-        <v>490</v>
+        <v>49000</v>
       </c>
       <c r="O3">
-        <v>1940</v>
+        <v>194000</v>
       </c>
       <c r="P3">
-        <v>840</v>
+        <v>84000</v>
       </c>
       <c r="Q3">
         <v>0.232</v>
@@ -944,25 +950,25 @@
         <v>4.85</v>
       </c>
       <c r="T3">
-        <v>3230</v>
+        <v>323000</v>
       </c>
       <c r="U3">
-        <v>1480</v>
+        <v>148000</v>
       </c>
       <c r="V3">
-        <v>5290</v>
+        <v>529000</v>
       </c>
       <c r="W3">
-        <v>1300</v>
+        <v>130000</v>
       </c>
       <c r="X3">
-        <v>2050</v>
+        <v>205000</v>
       </c>
       <c r="Y3">
-        <v>5370</v>
+        <v>537000</v>
       </c>
       <c r="Z3">
-        <v>2580</v>
+        <v>258000</v>
       </c>
       <c r="AA3" t="s">
         <v>27</v>
@@ -1009,13 +1015,13 @@
         <v>0.149</v>
       </c>
       <c r="N4">
-        <v>330</v>
+        <v>33000</v>
       </c>
       <c r="O4">
-        <v>2440</v>
+        <v>244000</v>
       </c>
       <c r="P4">
-        <v>730</v>
+        <v>73000</v>
       </c>
       <c r="Q4">
         <v>0.225</v>
@@ -1027,25 +1033,25 @@
         <v>3.83</v>
       </c>
       <c r="T4">
-        <v>3210</v>
+        <v>321000</v>
       </c>
       <c r="U4">
-        <v>2260</v>
+        <v>226000</v>
       </c>
       <c r="V4">
-        <v>4520</v>
+        <v>452000</v>
       </c>
       <c r="W4">
-        <v>1050</v>
+        <v>105000</v>
       </c>
       <c r="X4">
-        <v>1310</v>
+        <v>131000</v>
       </c>
       <c r="Y4">
-        <v>5830</v>
+        <v>583000</v>
       </c>
       <c r="Z4">
-        <v>2860</v>
+        <v>286000</v>
       </c>
       <c r="AA4" t="s">
         <v>28</v>
@@ -1092,13 +1098,13 @@
         <v>0.204</v>
       </c>
       <c r="N5">
-        <v>430</v>
+        <v>43000</v>
       </c>
       <c r="O5">
-        <v>1870</v>
+        <v>187000</v>
       </c>
       <c r="P5">
-        <v>790</v>
+        <v>79000</v>
       </c>
       <c r="Q5">
         <v>0.295</v>
@@ -1110,25 +1116,25 @@
         <v>4.66</v>
       </c>
       <c r="T5">
-        <v>4000</v>
+        <v>400000</v>
       </c>
       <c r="U5">
-        <v>1400</v>
+        <v>140000</v>
       </c>
       <c r="V5">
-        <v>4600</v>
+        <v>460000</v>
       </c>
       <c r="W5">
-        <v>1300</v>
+        <v>130000</v>
       </c>
       <c r="X5">
-        <v>1210</v>
+        <v>121000</v>
       </c>
       <c r="Y5">
-        <v>5450</v>
+        <v>545000</v>
       </c>
       <c r="Z5">
-        <v>3330</v>
+        <v>333000</v>
       </c>
       <c r="AA5" t="s">
         <v>28</v>
@@ -1175,13 +1181,13 @@
         <v>0.183</v>
       </c>
       <c r="N6">
-        <v>310</v>
+        <v>31000</v>
       </c>
       <c r="O6">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="P6">
-        <v>630</v>
+        <v>63000</v>
       </c>
       <c r="Q6">
         <v>0.31</v>
@@ -1193,25 +1199,25 @@
         <v>3.82</v>
       </c>
       <c r="T6">
-        <v>3410</v>
+        <v>341000</v>
       </c>
       <c r="U6">
-        <v>1820</v>
+        <v>182000</v>
       </c>
       <c r="V6">
-        <v>4770</v>
+        <v>477000</v>
       </c>
       <c r="W6">
-        <v>950</v>
+        <v>95000</v>
       </c>
       <c r="X6">
-        <v>2270</v>
+        <v>227000</v>
       </c>
       <c r="Y6">
-        <v>4550</v>
+        <v>455000</v>
       </c>
       <c r="Z6">
-        <v>3180</v>
+        <v>318000</v>
       </c>
       <c r="AA6" t="s">
         <v>110</v>
@@ -1258,13 +1264,13 @@
         <v>0.204</v>
       </c>
       <c r="N7">
-        <v>390</v>
+        <v>39000</v>
       </c>
       <c r="O7">
-        <v>2190</v>
+        <v>219000</v>
       </c>
       <c r="P7">
-        <v>680</v>
+        <v>68000</v>
       </c>
       <c r="Q7">
         <v>0.272</v>
@@ -1276,25 +1282,25 @@
         <v>4.53</v>
       </c>
       <c r="T7">
-        <v>3320</v>
+        <v>332000</v>
       </c>
       <c r="U7">
-        <v>1730</v>
+        <v>173000</v>
       </c>
       <c r="V7">
-        <v>4950</v>
+        <v>495000</v>
       </c>
       <c r="W7">
-        <v>1130</v>
+        <v>113000</v>
       </c>
       <c r="X7">
-        <v>1210</v>
+        <v>121000</v>
       </c>
       <c r="Y7">
-        <v>5750</v>
+        <v>575000</v>
       </c>
       <c r="Z7">
-        <v>3040</v>
+        <v>304000</v>
       </c>
       <c r="AA7" t="s">
         <v>110</v>
@@ -1341,13 +1347,13 @@
         <v>0.5</v>
       </c>
       <c r="N8">
-        <v>590</v>
+        <v>59000</v>
       </c>
       <c r="O8">
-        <v>1180</v>
+        <v>118000</v>
       </c>
       <c r="P8">
-        <v>1180</v>
+        <v>118000</v>
       </c>
       <c r="Q8">
         <v>0.5</v>
@@ -1359,25 +1365,25 @@
         <v>6.06</v>
       </c>
       <c r="T8">
-        <v>3850</v>
+        <v>385000</v>
       </c>
       <c r="U8">
-        <v>3080</v>
+        <v>308000</v>
       </c>
       <c r="V8">
-        <v>3080</v>
+        <v>308000</v>
       </c>
       <c r="W8">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="X8">
-        <v>770</v>
+        <v>77000</v>
       </c>
       <c r="Y8">
-        <v>6150</v>
+        <v>615000</v>
       </c>
       <c r="Z8">
-        <v>3080</v>
+        <v>308000</v>
       </c>
       <c r="AA8" t="s">
         <v>30</v>
@@ -1424,13 +1430,13 @@
         <v>0.097</v>
       </c>
       <c r="N9">
-        <v>140</v>
+        <v>14000</v>
       </c>
       <c r="O9">
-        <v>3120</v>
+        <v>312000</v>
       </c>
       <c r="P9">
-        <v>510</v>
+        <v>51000</v>
       </c>
       <c r="Q9">
         <v>0.298</v>
@@ -1442,25 +1448,25 @@
         <v>2.61</v>
       </c>
       <c r="T9">
-        <v>4880</v>
+        <v>488000</v>
       </c>
       <c r="U9">
-        <v>1820</v>
+        <v>182000</v>
       </c>
       <c r="V9">
-        <v>3290</v>
+        <v>329000</v>
       </c>
       <c r="W9">
-        <v>710</v>
+        <v>71000</v>
       </c>
       <c r="X9">
-        <v>1690</v>
+        <v>169000</v>
       </c>
       <c r="Y9">
-        <v>6100</v>
+        <v>610000</v>
       </c>
       <c r="Z9">
-        <v>2210</v>
+        <v>221000</v>
       </c>
       <c r="AA9" t="s">
         <v>31</v>
@@ -1507,13 +1513,13 @@
         <v>0.148</v>
       </c>
       <c r="N10">
-        <v>310</v>
+        <v>31000</v>
       </c>
       <c r="O10">
-        <v>3230</v>
+        <v>323000</v>
       </c>
       <c r="P10">
-        <v>310</v>
+        <v>31000</v>
       </c>
       <c r="Q10">
         <v>0.231</v>
@@ -1525,25 +1531,25 @@
         <v>2.1</v>
       </c>
       <c r="T10">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="U10">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="V10">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="W10">
-        <v>2000</v>
+        <v>200000</v>
       </c>
       <c r="X10">
-        <v>3170</v>
+        <v>317000</v>
       </c>
       <c r="Y10">
-        <v>5120</v>
+        <v>512000</v>
       </c>
       <c r="Z10">
-        <v>1710</v>
+        <v>171000</v>
       </c>
       <c r="AA10" t="s">
         <v>31</v>
@@ -1590,13 +1596,13 @@
         <v>0.061</v>
       </c>
       <c r="N11">
-        <v>120</v>
+        <v>12000</v>
       </c>
       <c r="O11">
-        <v>2110</v>
+        <v>211000</v>
       </c>
       <c r="P11">
-        <v>810</v>
+        <v>81000</v>
       </c>
       <c r="Q11">
         <v>0.188</v>
@@ -1608,25 +1614,25 @@
         <v>3.52</v>
       </c>
       <c r="T11">
-        <v>5930</v>
+        <v>593000</v>
       </c>
       <c r="U11">
-        <v>1330</v>
+        <v>133000</v>
       </c>
       <c r="V11">
-        <v>2740</v>
+        <v>274000</v>
       </c>
       <c r="W11">
-        <v>650</v>
+        <v>65000</v>
       </c>
       <c r="X11">
-        <v>2190</v>
+        <v>219000</v>
       </c>
       <c r="Y11">
-        <v>5960</v>
+        <v>596000</v>
       </c>
       <c r="Z11">
-        <v>1840</v>
+        <v>184000</v>
       </c>
       <c r="AA11" t="s">
         <v>32</v>
@@ -1673,13 +1679,13 @@
         <v>0.154</v>
       </c>
       <c r="N12">
-        <v>340</v>
+        <v>34000</v>
       </c>
       <c r="O12">
-        <v>2580</v>
+        <v>258000</v>
       </c>
       <c r="P12">
-        <v>470</v>
+        <v>47000</v>
       </c>
       <c r="Q12">
         <v>0.299</v>
@@ -1691,25 +1697,25 @@
         <v>3.29</v>
       </c>
       <c r="T12">
-        <v>4190</v>
+        <v>419000</v>
       </c>
       <c r="U12">
-        <v>1690</v>
+        <v>169000</v>
       </c>
       <c r="V12">
-        <v>4130</v>
+        <v>413000</v>
       </c>
       <c r="W12">
-        <v>1210</v>
+        <v>121000</v>
       </c>
       <c r="X12">
-        <v>1730</v>
+        <v>173000</v>
       </c>
       <c r="Y12">
-        <v>4880</v>
+        <v>488000</v>
       </c>
       <c r="Z12">
-        <v>3400</v>
+        <v>340000</v>
       </c>
       <c r="AA12" t="s">
         <v>32</v>
@@ -1756,13 +1762,13 @@
         <v>0.212</v>
       </c>
       <c r="N13">
-        <v>350</v>
+        <v>35000</v>
       </c>
       <c r="O13">
-        <v>1430</v>
+        <v>143000</v>
       </c>
       <c r="P13">
-        <v>820</v>
+        <v>82000</v>
       </c>
       <c r="Q13">
         <v>0.345</v>
@@ -1774,25 +1780,25 @@
         <v>4.88</v>
       </c>
       <c r="T13">
-        <v>3990</v>
+        <v>399000</v>
       </c>
       <c r="U13">
-        <v>2250</v>
+        <v>225000</v>
       </c>
       <c r="V13">
-        <v>3760</v>
+        <v>376000</v>
       </c>
       <c r="W13">
-        <v>1190</v>
+        <v>119000</v>
       </c>
       <c r="X13">
-        <v>1120</v>
+        <v>112000</v>
       </c>
       <c r="Y13">
-        <v>5200</v>
+        <v>520000</v>
       </c>
       <c r="Z13">
-        <v>3690</v>
+        <v>369000</v>
       </c>
       <c r="AA13" t="s">
         <v>105</v>
@@ -1839,13 +1845,13 @@
         <v>0.146</v>
       </c>
       <c r="N14">
-        <v>250</v>
+        <v>25000</v>
       </c>
       <c r="O14">
-        <v>3420</v>
+        <v>342000</v>
       </c>
       <c r="P14">
-        <v>440</v>
+        <v>44000</v>
       </c>
       <c r="Q14">
         <v>0.293</v>
@@ -1857,25 +1863,25 @@
         <v>2.29</v>
       </c>
       <c r="T14">
-        <v>4570</v>
+        <v>457000</v>
       </c>
       <c r="U14">
-        <v>1910</v>
+        <v>191000</v>
       </c>
       <c r="V14">
-        <v>3510</v>
+        <v>351000</v>
       </c>
       <c r="W14">
-        <v>1210</v>
+        <v>121000</v>
       </c>
       <c r="X14">
-        <v>1460</v>
+        <v>146000</v>
       </c>
       <c r="Y14">
-        <v>5730</v>
+        <v>573000</v>
       </c>
       <c r="Z14">
-        <v>2810</v>
+        <v>281000</v>
       </c>
       <c r="AA14" t="s">
         <v>34</v>
@@ -1922,13 +1928,13 @@
         <v>0.158</v>
       </c>
       <c r="N15">
-        <v>360</v>
+        <v>36000</v>
       </c>
       <c r="O15">
-        <v>3250</v>
+        <v>325000</v>
       </c>
       <c r="P15">
-        <v>360</v>
+        <v>36000</v>
       </c>
       <c r="Q15">
         <v>0.316</v>
@@ -1940,25 +1946,25 @@
         <v>2.17</v>
       </c>
       <c r="T15">
-        <v>4420</v>
+        <v>442000</v>
       </c>
       <c r="U15">
-        <v>2690</v>
+        <v>269000</v>
       </c>
       <c r="V15">
-        <v>2880</v>
+        <v>288000</v>
       </c>
       <c r="W15">
-        <v>2000</v>
+        <v>200000</v>
       </c>
       <c r="X15">
-        <v>1540</v>
+        <v>154000</v>
       </c>
       <c r="Y15">
-        <v>5190</v>
+        <v>519000</v>
       </c>
       <c r="Z15">
-        <v>3270</v>
+        <v>327000</v>
       </c>
       <c r="AA15" t="s">
         <v>34</v>
@@ -2005,13 +2011,13 @@
         <v>0.06</v>
       </c>
       <c r="N16">
-        <v>60</v>
+        <v>6000</v>
       </c>
       <c r="O16">
-        <v>2390</v>
+        <v>239000</v>
       </c>
       <c r="P16">
-        <v>190</v>
+        <v>19000</v>
       </c>
       <c r="Q16">
         <v>0.289</v>
@@ -2023,25 +2029,25 @@
         <v>3.08</v>
       </c>
       <c r="T16">
-        <v>3840</v>
+        <v>384000</v>
       </c>
       <c r="U16">
-        <v>2320</v>
+        <v>232000</v>
       </c>
       <c r="V16">
-        <v>3840</v>
+        <v>384000</v>
       </c>
       <c r="W16">
-        <v>230</v>
+        <v>23000</v>
       </c>
       <c r="X16">
-        <v>1740</v>
+        <v>174000</v>
       </c>
       <c r="Y16">
-        <v>4870</v>
+        <v>487000</v>
       </c>
       <c r="Z16">
-        <v>3390</v>
+        <v>339000</v>
       </c>
       <c r="AA16" t="s">
         <v>35</v>
@@ -2088,13 +2094,13 @@
         <v>0.173</v>
       </c>
       <c r="N17">
-        <v>280</v>
+        <v>28000</v>
       </c>
       <c r="O17">
-        <v>2150</v>
+        <v>215000</v>
       </c>
       <c r="P17">
-        <v>1110</v>
+        <v>111000</v>
       </c>
       <c r="Q17">
         <v>0.333</v>
@@ -2106,25 +2112,25 @@
         <v>4.44</v>
       </c>
       <c r="T17">
-        <v>4430</v>
+        <v>443000</v>
       </c>
       <c r="U17">
-        <v>1650</v>
+        <v>165000</v>
       </c>
       <c r="V17">
-        <v>3920</v>
+        <v>392000</v>
       </c>
       <c r="W17">
-        <v>1050</v>
+        <v>105000</v>
       </c>
       <c r="X17">
-        <v>930</v>
+        <v>93000</v>
       </c>
       <c r="Y17">
-        <v>5150</v>
+        <v>515000</v>
       </c>
       <c r="Z17">
-        <v>3920</v>
+        <v>392000</v>
       </c>
       <c r="AA17" t="s">
         <v>35</v>
@@ -2171,13 +2177,13 @@
         <v>0.096</v>
       </c>
       <c r="N18">
-        <v>180</v>
+        <v>18000</v>
       </c>
       <c r="O18">
-        <v>1700</v>
+        <v>170000</v>
       </c>
       <c r="P18">
-        <v>1390</v>
+        <v>139000</v>
       </c>
       <c r="Q18">
         <v>0.292</v>
@@ -2189,25 +2195,25 @@
         <v>5.02</v>
       </c>
       <c r="T18">
-        <v>5140</v>
+        <v>514000</v>
       </c>
       <c r="U18">
-        <v>2430</v>
+        <v>243000</v>
       </c>
       <c r="V18">
-        <v>2430</v>
+        <v>243000</v>
       </c>
       <c r="W18">
-        <v>1150</v>
+        <v>115000</v>
       </c>
       <c r="X18">
-        <v>1470</v>
+        <v>147000</v>
       </c>
       <c r="Y18">
-        <v>5140</v>
+        <v>514000</v>
       </c>
       <c r="Z18">
-        <v>3390</v>
+        <v>339000</v>
       </c>
       <c r="AA18" t="s">
         <v>36</v>
@@ -2254,13 +2260,13 @@
         <v>0.155</v>
       </c>
       <c r="N19">
-        <v>280</v>
+        <v>28000</v>
       </c>
       <c r="O19">
-        <v>2330</v>
+        <v>233000</v>
       </c>
       <c r="P19">
-        <v>450</v>
+        <v>45000</v>
       </c>
       <c r="Q19">
         <v>0.273</v>
@@ -2272,25 +2278,25 @@
         <v>3.34</v>
       </c>
       <c r="T19">
-        <v>5200</v>
+        <v>520000</v>
       </c>
       <c r="U19">
-        <v>1280</v>
+        <v>128000</v>
       </c>
       <c r="V19">
-        <v>3520</v>
+        <v>352000</v>
       </c>
       <c r="W19">
-        <v>1140</v>
+        <v>114000</v>
       </c>
       <c r="X19">
-        <v>1270</v>
+        <v>127000</v>
       </c>
       <c r="Y19">
-        <v>5790</v>
+        <v>579000</v>
       </c>
       <c r="Z19">
-        <v>2940</v>
+        <v>294000</v>
       </c>
       <c r="AA19" t="s">
         <v>36</v>
@@ -2337,13 +2343,13 @@
         <v>0.147</v>
       </c>
       <c r="N20">
-        <v>330</v>
+        <v>33000</v>
       </c>
       <c r="O20">
-        <v>1700</v>
+        <v>170000</v>
       </c>
       <c r="P20">
-        <v>380</v>
+        <v>38000</v>
       </c>
       <c r="Q20">
         <v>0.321</v>
@@ -2355,25 +2361,25 @@
         <v>3.96</v>
       </c>
       <c r="T20">
-        <v>4680</v>
+        <v>468000</v>
       </c>
       <c r="U20">
-        <v>2090</v>
+        <v>209000</v>
       </c>
       <c r="V20">
-        <v>3240</v>
+        <v>324000</v>
       </c>
       <c r="W20">
-        <v>1330</v>
+        <v>133000</v>
       </c>
       <c r="X20">
-        <v>1930</v>
+        <v>193000</v>
       </c>
       <c r="Y20">
-        <v>4790</v>
+        <v>479000</v>
       </c>
       <c r="Z20">
-        <v>3290</v>
+        <v>329000</v>
       </c>
       <c r="AA20" t="s">
         <v>111</v>
@@ -2420,13 +2426,13 @@
         <v>0.211</v>
       </c>
       <c r="N21">
-        <v>530</v>
+        <v>53000</v>
       </c>
       <c r="O21">
-        <v>1800</v>
+        <v>180000</v>
       </c>
       <c r="P21">
-        <v>780</v>
+        <v>78000</v>
       </c>
       <c r="Q21">
         <v>0.196</v>
@@ -2438,25 +2444,25 @@
         <v>4.67</v>
       </c>
       <c r="T21">
-        <v>3990</v>
+        <v>399000</v>
       </c>
       <c r="U21">
-        <v>1620</v>
+        <v>162000</v>
       </c>
       <c r="V21">
-        <v>4390</v>
+        <v>439000</v>
       </c>
       <c r="W21">
-        <v>1690</v>
+        <v>169000</v>
       </c>
       <c r="X21">
-        <v>1350</v>
+        <v>135000</v>
       </c>
       <c r="Y21">
-        <v>5340</v>
+        <v>534000</v>
       </c>
       <c r="Z21">
-        <v>3310</v>
+        <v>331000</v>
       </c>
       <c r="AA21" t="s">
         <v>111</v>
@@ -2503,13 +2509,13 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="N22">
-        <v>130</v>
+        <v>13000</v>
       </c>
       <c r="O22">
-        <v>1600</v>
+        <v>160000</v>
       </c>
       <c r="P22">
-        <v>640</v>
+        <v>64000</v>
       </c>
       <c r="Q22">
         <v>0.265</v>
@@ -2521,25 +2527,25 @@
         <v>4.33</v>
       </c>
       <c r="T22">
-        <v>4870</v>
+        <v>487000</v>
       </c>
       <c r="U22">
-        <v>1680</v>
+        <v>168000</v>
       </c>
       <c r="V22">
-        <v>3450</v>
+        <v>345000</v>
       </c>
       <c r="W22">
-        <v>490</v>
+        <v>49000</v>
       </c>
       <c r="X22">
-        <v>2350</v>
+        <v>235000</v>
       </c>
       <c r="Y22">
-        <v>4870</v>
+        <v>487000</v>
       </c>
       <c r="Z22">
-        <v>2770</v>
+        <v>277000</v>
       </c>
       <c r="AA22" t="s">
         <v>38</v>
@@ -2586,13 +2592,13 @@
         <v>0.19</v>
       </c>
       <c r="N23">
-        <v>340</v>
+        <v>34000</v>
       </c>
       <c r="O23">
-        <v>2470</v>
+        <v>247000</v>
       </c>
       <c r="P23">
-        <v>750</v>
+        <v>75000</v>
       </c>
       <c r="Q23">
         <v>0.319</v>
@@ -2604,25 +2610,25 @@
         <v>3.86</v>
       </c>
       <c r="T23">
-        <v>2580</v>
+        <v>258000</v>
       </c>
       <c r="U23">
-        <v>2890</v>
+        <v>289000</v>
       </c>
       <c r="V23">
-        <v>4540</v>
+        <v>454000</v>
       </c>
       <c r="W23">
-        <v>1140</v>
+        <v>114000</v>
       </c>
       <c r="X23">
-        <v>1720</v>
+        <v>172000</v>
       </c>
       <c r="Y23">
-        <v>6060</v>
+        <v>606000</v>
       </c>
       <c r="Z23">
-        <v>2220</v>
+        <v>222000</v>
       </c>
       <c r="AA23" t="s">
         <v>38</v>
@@ -2669,13 +2675,13 @@
         <v>0.195</v>
       </c>
       <c r="N24">
-        <v>290</v>
+        <v>29000</v>
       </c>
       <c r="O24">
-        <v>1970</v>
+        <v>197000</v>
       </c>
       <c r="P24">
-        <v>640</v>
+        <v>64000</v>
       </c>
       <c r="Q24">
         <v>0.311</v>
@@ -2687,25 +2693,25 @@
         <v>4.11</v>
       </c>
       <c r="T24">
-        <v>3600</v>
+        <v>360000</v>
       </c>
       <c r="U24">
-        <v>2400</v>
+        <v>240000</v>
       </c>
       <c r="V24">
-        <v>4000</v>
+        <v>400000</v>
       </c>
       <c r="W24">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="X24">
-        <v>1570</v>
+        <v>157000</v>
       </c>
       <c r="Y24">
-        <v>5280</v>
+        <v>528000</v>
       </c>
       <c r="Z24">
-        <v>3150</v>
+        <v>315000</v>
       </c>
       <c r="AA24" t="s">
         <v>39</v>
@@ -2752,13 +2758,13 @@
         <v>0.161</v>
       </c>
       <c r="N25">
-        <v>360</v>
+        <v>36000</v>
       </c>
       <c r="O25">
-        <v>1690</v>
+        <v>169000</v>
       </c>
       <c r="P25">
-        <v>310</v>
+        <v>31000</v>
       </c>
       <c r="Q25">
         <v>0.259</v>
@@ -2770,25 +2776,25 @@
         <v>3.95</v>
       </c>
       <c r="T25">
-        <v>4640</v>
+        <v>464000</v>
       </c>
       <c r="U25">
-        <v>1700</v>
+        <v>170000</v>
       </c>
       <c r="V25">
-        <v>3660</v>
+        <v>366000</v>
       </c>
       <c r="W25">
-        <v>1250</v>
+        <v>125000</v>
       </c>
       <c r="X25">
-        <v>1310</v>
+        <v>131000</v>
       </c>
       <c r="Y25">
-        <v>6080</v>
+        <v>608000</v>
       </c>
       <c r="Z25">
-        <v>2610</v>
+        <v>261000</v>
       </c>
       <c r="AA25" t="s">
         <v>39</v>
@@ -2835,13 +2841,13 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>280</v>
+        <v>28000</v>
       </c>
       <c r="O26">
-        <v>2540</v>
+        <v>254000</v>
       </c>
       <c r="P26">
-        <v>140</v>
+        <v>14000</v>
       </c>
       <c r="Q26">
         <v>0.3</v>
@@ -2853,25 +2859,25 @@
         <v>3.56</v>
       </c>
       <c r="T26">
-        <v>2400</v>
+        <v>240000</v>
       </c>
       <c r="U26">
-        <v>2000</v>
+        <v>200000</v>
       </c>
       <c r="V26">
-        <v>5600</v>
+        <v>560000</v>
       </c>
       <c r="W26">
-        <v>710</v>
+        <v>71000</v>
       </c>
       <c r="X26">
-        <v>1920</v>
+        <v>192000</v>
       </c>
       <c r="Y26">
-        <v>6150</v>
+        <v>615000</v>
       </c>
       <c r="Z26">
-        <v>1920</v>
+        <v>192000</v>
       </c>
       <c r="AA26" t="s">
         <v>40</v>
@@ -2918,13 +2924,13 @@
         <v>0.142</v>
       </c>
       <c r="N27">
-        <v>320</v>
+        <v>32000</v>
       </c>
       <c r="O27">
-        <v>2500</v>
+        <v>250000</v>
       </c>
       <c r="P27">
-        <v>440</v>
+        <v>44000</v>
       </c>
       <c r="Q27">
         <v>0.296</v>
@@ -2936,25 +2942,25 @@
         <v>3.59</v>
       </c>
       <c r="T27">
-        <v>3690</v>
+        <v>369000</v>
       </c>
       <c r="U27">
-        <v>1700</v>
+        <v>170000</v>
       </c>
       <c r="V27">
-        <v>4600</v>
+        <v>460000</v>
       </c>
       <c r="W27">
-        <v>990</v>
+        <v>99000</v>
       </c>
       <c r="X27">
-        <v>1470</v>
+        <v>147000</v>
       </c>
       <c r="Y27">
-        <v>5590</v>
+        <v>559000</v>
       </c>
       <c r="Z27">
-        <v>2940</v>
+        <v>294000</v>
       </c>
       <c r="AA27" t="s">
         <v>40</v>
@@ -3001,13 +3007,13 @@
         <v>0.183</v>
       </c>
       <c r="N28">
-        <v>250</v>
+        <v>25000</v>
       </c>
       <c r="O28">
-        <v>1850</v>
+        <v>185000</v>
       </c>
       <c r="P28">
-        <v>1230</v>
+        <v>123000</v>
       </c>
       <c r="Q28">
         <v>0.333</v>
@@ -3019,25 +3025,25 @@
         <v>4.57</v>
       </c>
       <c r="T28">
-        <v>5450</v>
+        <v>545000</v>
       </c>
       <c r="U28">
-        <v>1450</v>
+        <v>145000</v>
       </c>
       <c r="V28">
-        <v>3090</v>
+        <v>309000</v>
       </c>
       <c r="W28">
-        <v>1180</v>
+        <v>118000</v>
       </c>
       <c r="X28">
-        <v>1250</v>
+        <v>125000</v>
       </c>
       <c r="Y28">
-        <v>5180</v>
+        <v>518000</v>
       </c>
       <c r="Z28">
-        <v>3570</v>
+        <v>357000</v>
       </c>
       <c r="AA28" t="s">
         <v>41</v>
@@ -3084,13 +3090,13 @@
         <v>0.182</v>
       </c>
       <c r="N29">
-        <v>270</v>
+        <v>27000</v>
       </c>
       <c r="O29">
-        <v>1740</v>
+        <v>174000</v>
       </c>
       <c r="P29">
-        <v>850</v>
+        <v>85000</v>
       </c>
       <c r="Q29">
         <v>0.319</v>
@@ -3102,25 +3108,25 @@
         <v>4.36</v>
       </c>
       <c r="T29">
-        <v>4600</v>
+        <v>460000</v>
       </c>
       <c r="U29">
-        <v>2280</v>
+        <v>228000</v>
       </c>
       <c r="V29">
-        <v>3120</v>
+        <v>312000</v>
       </c>
       <c r="W29">
-        <v>1190</v>
+        <v>119000</v>
       </c>
       <c r="X29">
-        <v>1160</v>
+        <v>116000</v>
       </c>
       <c r="Y29">
-        <v>5560</v>
+        <v>556000</v>
       </c>
       <c r="Z29">
-        <v>3280</v>
+        <v>328000</v>
       </c>
       <c r="AA29" t="s">
         <v>41</v>
@@ -3167,13 +3173,13 @@
         <v>0.08</v>
       </c>
       <c r="N30">
-        <v>170</v>
+        <v>17000</v>
       </c>
       <c r="O30">
-        <v>3200</v>
+        <v>320000</v>
       </c>
       <c r="P30">
-        <v>450</v>
+        <v>45000</v>
       </c>
       <c r="Q30">
         <v>0.187</v>
@@ -3185,25 +3191,25 @@
         <v>2.52</v>
       </c>
       <c r="T30">
-        <v>5230</v>
+        <v>523000</v>
       </c>
       <c r="U30">
-        <v>1560</v>
+        <v>156000</v>
       </c>
       <c r="V30">
-        <v>3210</v>
+        <v>321000</v>
       </c>
       <c r="W30">
-        <v>860</v>
+        <v>86000</v>
       </c>
       <c r="X30">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="Y30">
-        <v>4820</v>
+        <v>482000</v>
       </c>
       <c r="Z30">
-        <v>2180</v>
+        <v>218000</v>
       </c>
       <c r="AA30" t="s">
         <v>42</v>
@@ -3250,13 +3256,13 @@
         <v>0.173</v>
       </c>
       <c r="N31">
-        <v>330</v>
+        <v>33000</v>
       </c>
       <c r="O31">
-        <v>2330</v>
+        <v>233000</v>
       </c>
       <c r="P31">
-        <v>980</v>
+        <v>98000</v>
       </c>
       <c r="Q31">
         <v>0.267</v>
@@ -3268,25 +3274,25 @@
         <v>4.28</v>
       </c>
       <c r="T31">
-        <v>3380</v>
+        <v>338000</v>
       </c>
       <c r="U31">
-        <v>2320</v>
+        <v>232000</v>
       </c>
       <c r="V31">
-        <v>4300</v>
+        <v>430000</v>
       </c>
       <c r="W31">
-        <v>1150</v>
+        <v>115000</v>
       </c>
       <c r="X31">
-        <v>1620</v>
+        <v>162000</v>
       </c>
       <c r="Y31">
-        <v>5140</v>
+        <v>514000</v>
       </c>
       <c r="Z31">
-        <v>3240</v>
+        <v>324000</v>
       </c>
       <c r="AA31" t="s">
         <v>42</v>
@@ -4202,7 +4208,7 @@
         <v>21.7</v>
       </c>
       <c r="AA42" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4285,7 +4291,7 @@
         <v>30.1</v>
       </c>
       <c r="AA43" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4700,7 +4706,7 @@
         <v>31.4</v>
       </c>
       <c r="AA48" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4783,7 +4789,7 @@
         <v>33.7</v>
       </c>
       <c r="AA49" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5696,7 +5702,7 @@
         <v>28.9</v>
       </c>
       <c r="AA60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5779,7 +5785,7 @@
         <v>35</v>
       </c>
       <c r="AA61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:27">

--- a/assets/Season_Aggregated_Pitcher_Statistics.xlsx
+++ b/assets/Season_Aggregated_Pitcher_Statistics.xlsx
@@ -553,16 +553,16 @@
     <t>Gavin Stone</t>
   </si>
   <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Nestor Cortes</t>
+  </si>
+  <si>
     <t>Kyle Gibson</t>
   </si>
   <si>
     <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
-    <t>Nestor Cortes</t>
   </si>
   <si>
     <t>Reese Olson</t>
@@ -26308,13 +26308,13 @@
         <v>179</v>
       </c>
       <c r="B304" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C304" t="s">
         <v>242</v>
       </c>
       <c r="D304" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E304" t="s">
         <v>179</v>
@@ -26326,61 +26326,61 @@
         <v>252</v>
       </c>
       <c r="H304">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="I304">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J304">
-        <v>0.266</v>
+        <v>0.237</v>
       </c>
       <c r="K304">
-        <v>0.361</v>
+        <v>0.309</v>
       </c>
       <c r="L304">
-        <v>0.479</v>
+        <v>0.396</v>
       </c>
       <c r="M304">
-        <v>0.213</v>
+        <v>0.159</v>
       </c>
       <c r="N304">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O304">
-        <v>20.6</v>
+        <v>33.3</v>
       </c>
       <c r="P304">
-        <v>11.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q304">
-        <v>0.305</v>
+        <v>0.337</v>
       </c>
       <c r="R304">
-        <v>5.08</v>
+        <v>3.31</v>
       </c>
       <c r="S304">
-        <v>4.69</v>
+        <v>3.19</v>
       </c>
       <c r="T304">
-        <v>41.2</v>
+        <v>33.3</v>
       </c>
       <c r="U304">
-        <v>20.3</v>
+        <v>19.5</v>
       </c>
       <c r="V304">
-        <v>38.5</v>
+        <v>47.1</v>
       </c>
       <c r="W304">
-        <v>14</v>
+        <v>12.2</v>
       </c>
       <c r="X304">
-        <v>16.8</v>
+        <v>10.2</v>
       </c>
       <c r="Y304">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="Z304">
-        <v>36.2</v>
+        <v>42</v>
       </c>
       <c r="AA304" t="s">
         <v>179</v>
@@ -26391,13 +26391,13 @@
         <v>179</v>
       </c>
       <c r="B305" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C305" t="s">
         <v>242</v>
       </c>
       <c r="D305" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E305" t="s">
         <v>179</v>
@@ -26409,61 +26409,61 @@
         <v>251</v>
       </c>
       <c r="H305">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="I305">
         <v>5</v>
       </c>
       <c r="J305">
-        <v>0.242</v>
+        <v>0.171</v>
       </c>
       <c r="K305">
-        <v>0.285</v>
+        <v>0.244</v>
       </c>
       <c r="L305">
-        <v>0.347</v>
+        <v>0.306</v>
       </c>
       <c r="M305">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="N305">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O305">
-        <v>24.2</v>
+        <v>27</v>
       </c>
       <c r="P305">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q305">
-        <v>0.299</v>
+        <v>0.184</v>
       </c>
       <c r="R305">
-        <v>3.36</v>
+        <v>4.09</v>
       </c>
       <c r="S305">
-        <v>3.16</v>
+        <v>3.5</v>
       </c>
       <c r="T305">
-        <v>56.7</v>
+        <v>44.3</v>
       </c>
       <c r="U305">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V305">
-        <v>26.2</v>
+        <v>39.2</v>
       </c>
       <c r="W305">
-        <v>13.5</v>
+        <v>16.1</v>
       </c>
       <c r="X305">
-        <v>15.5</v>
+        <v>9.9</v>
       </c>
       <c r="Y305">
-        <v>52.1</v>
+        <v>54.3</v>
       </c>
       <c r="Z305">
-        <v>32.4</v>
+        <v>35.8</v>
       </c>
       <c r="AA305" t="s">
         <v>179</v>
@@ -26474,13 +26474,13 @@
         <v>180</v>
       </c>
       <c r="B306" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C306" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D306" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E306" t="s">
         <v>180</v>
@@ -26492,61 +26492,61 @@
         <v>252</v>
       </c>
       <c r="H306">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="I306">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J306">
-        <v>0.215</v>
+        <v>0.217</v>
       </c>
       <c r="K306">
-        <v>0.315</v>
+        <v>0.243</v>
       </c>
       <c r="L306">
-        <v>0.354</v>
+        <v>0.301</v>
       </c>
       <c r="M306">
-        <v>0.139</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="N306">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O306">
-        <v>24.9</v>
+        <v>27.3</v>
       </c>
       <c r="P306">
-        <v>11.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q306">
-        <v>0.276</v>
+        <v>0.288</v>
       </c>
       <c r="R306">
-        <v>4.34</v>
+        <v>2.12</v>
       </c>
       <c r="S306">
-        <v>4.42</v>
+        <v>3.55</v>
       </c>
       <c r="T306">
-        <v>42</v>
+        <v>23.3</v>
       </c>
       <c r="U306">
-        <v>23.9</v>
+        <v>26.7</v>
       </c>
       <c r="V306">
-        <v>34.1</v>
+        <v>50</v>
       </c>
       <c r="W306">
-        <v>10.6</v>
+        <v>3.3</v>
       </c>
       <c r="X306">
-        <v>17.3</v>
+        <v>15</v>
       </c>
       <c r="Y306">
-        <v>49.6</v>
+        <v>58.3</v>
       </c>
       <c r="Z306">
-        <v>33.1</v>
+        <v>26.7</v>
       </c>
       <c r="AA306" t="s">
         <v>180</v>
@@ -26557,13 +26557,13 @@
         <v>180</v>
       </c>
       <c r="B307" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C307" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D307" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E307" t="s">
         <v>180</v>
@@ -26575,61 +26575,61 @@
         <v>251</v>
       </c>
       <c r="H307">
-        <v>167</v>
+        <v>380</v>
       </c>
       <c r="I307">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J307">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="K307">
-        <v>0.323</v>
+        <v>0.315</v>
       </c>
       <c r="L307">
-        <v>0.449</v>
+        <v>0.44</v>
       </c>
       <c r="M307">
-        <v>0.199</v>
+        <v>0.191</v>
       </c>
       <c r="N307">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O307">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="P307">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="Q307">
-        <v>0.295</v>
+        <v>0.287</v>
       </c>
       <c r="R307">
-        <v>3.99</v>
+        <v>4.09</v>
       </c>
       <c r="S307">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="T307">
-        <v>48.3</v>
+        <v>31.6</v>
       </c>
       <c r="U307">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
       <c r="V307">
-        <v>31.4</v>
+        <v>49.1</v>
       </c>
       <c r="W307">
-        <v>16.2</v>
+        <v>11.4</v>
       </c>
       <c r="X307">
-        <v>16.1</v>
+        <v>16.5</v>
       </c>
       <c r="Y307">
-        <v>53.4</v>
+        <v>52.7</v>
       </c>
       <c r="Z307">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="AA307" t="s">
         <v>180</v>
@@ -26640,13 +26640,13 @@
         <v>181</v>
       </c>
       <c r="B308" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C308" t="s">
         <v>242</v>
       </c>
       <c r="D308" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E308" t="s">
         <v>181</v>
@@ -26658,61 +26658,61 @@
         <v>252</v>
       </c>
       <c r="H308">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="I308">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J308">
-        <v>0.237</v>
+        <v>0.266</v>
       </c>
       <c r="K308">
-        <v>0.309</v>
+        <v>0.361</v>
       </c>
       <c r="L308">
-        <v>0.396</v>
+        <v>0.479</v>
       </c>
       <c r="M308">
-        <v>0.159</v>
+        <v>0.213</v>
       </c>
       <c r="N308">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O308">
-        <v>33.3</v>
+        <v>20.6</v>
       </c>
       <c r="P308">
-        <v>8.5</v>
+        <v>11.7</v>
       </c>
       <c r="Q308">
-        <v>0.337</v>
+        <v>0.305</v>
       </c>
       <c r="R308">
-        <v>3.31</v>
+        <v>5.08</v>
       </c>
       <c r="S308">
-        <v>3.19</v>
+        <v>4.69</v>
       </c>
       <c r="T308">
-        <v>33.3</v>
+        <v>41.2</v>
       </c>
       <c r="U308">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="V308">
-        <v>47.1</v>
+        <v>38.5</v>
       </c>
       <c r="W308">
-        <v>12.2</v>
+        <v>14</v>
       </c>
       <c r="X308">
-        <v>10.2</v>
+        <v>16.8</v>
       </c>
       <c r="Y308">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="Z308">
-        <v>42</v>
+        <v>36.2</v>
       </c>
       <c r="AA308" t="s">
         <v>181</v>
@@ -26723,13 +26723,13 @@
         <v>181</v>
       </c>
       <c r="B309" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C309" t="s">
         <v>242</v>
       </c>
       <c r="D309" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E309" t="s">
         <v>181</v>
@@ -26741,61 +26741,61 @@
         <v>251</v>
       </c>
       <c r="H309">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="I309">
         <v>5</v>
       </c>
       <c r="J309">
-        <v>0.171</v>
+        <v>0.242</v>
       </c>
       <c r="K309">
-        <v>0.244</v>
+        <v>0.285</v>
       </c>
       <c r="L309">
-        <v>0.306</v>
+        <v>0.347</v>
       </c>
       <c r="M309">
-        <v>0.135</v>
+        <v>0.105</v>
       </c>
       <c r="N309">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O309">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="P309">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Q309">
-        <v>0.184</v>
+        <v>0.299</v>
       </c>
       <c r="R309">
-        <v>4.09</v>
+        <v>3.36</v>
       </c>
       <c r="S309">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="T309">
-        <v>44.3</v>
+        <v>56.7</v>
       </c>
       <c r="U309">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V309">
-        <v>39.2</v>
+        <v>26.2</v>
       </c>
       <c r="W309">
-        <v>16.1</v>
+        <v>13.5</v>
       </c>
       <c r="X309">
-        <v>9.9</v>
+        <v>15.5</v>
       </c>
       <c r="Y309">
-        <v>54.3</v>
+        <v>52.1</v>
       </c>
       <c r="Z309">
-        <v>35.8</v>
+        <v>32.4</v>
       </c>
       <c r="AA309" t="s">
         <v>181</v>
@@ -26806,13 +26806,13 @@
         <v>182</v>
       </c>
       <c r="B310" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C310" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D310" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E310" t="s">
         <v>182</v>
@@ -26824,61 +26824,61 @@
         <v>252</v>
       </c>
       <c r="H310">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J310">
-        <v>0.217</v>
+        <v>0.215</v>
       </c>
       <c r="K310">
-        <v>0.243</v>
+        <v>0.315</v>
       </c>
       <c r="L310">
-        <v>0.301</v>
+        <v>0.354</v>
       </c>
       <c r="M310">
-        <v>0.08400000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="N310">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O310">
-        <v>27.3</v>
+        <v>24.9</v>
       </c>
       <c r="P310">
-        <v>4.5</v>
+        <v>11.4</v>
       </c>
       <c r="Q310">
-        <v>0.288</v>
+        <v>0.276</v>
       </c>
       <c r="R310">
-        <v>2.12</v>
+        <v>4.34</v>
       </c>
       <c r="S310">
-        <v>3.55</v>
+        <v>4.42</v>
       </c>
       <c r="T310">
-        <v>23.3</v>
+        <v>42</v>
       </c>
       <c r="U310">
-        <v>26.7</v>
+        <v>23.9</v>
       </c>
       <c r="V310">
-        <v>50</v>
+        <v>34.1</v>
       </c>
       <c r="W310">
-        <v>3.3</v>
+        <v>10.6</v>
       </c>
       <c r="X310">
-        <v>15</v>
+        <v>17.3</v>
       </c>
       <c r="Y310">
-        <v>58.3</v>
+        <v>49.6</v>
       </c>
       <c r="Z310">
-        <v>26.7</v>
+        <v>33.1</v>
       </c>
       <c r="AA310" t="s">
         <v>182</v>
@@ -26889,13 +26889,13 @@
         <v>182</v>
       </c>
       <c r="B311" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C311" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D311" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E311" t="s">
         <v>182</v>
@@ -26907,61 +26907,61 @@
         <v>251</v>
       </c>
       <c r="H311">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="I311">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J311">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="K311">
-        <v>0.315</v>
+        <v>0.323</v>
       </c>
       <c r="L311">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="M311">
-        <v>0.191</v>
+        <v>0.199</v>
       </c>
       <c r="N311">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="O311">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="P311">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q311">
-        <v>0.287</v>
+        <v>0.295</v>
       </c>
       <c r="R311">
-        <v>4.09</v>
+        <v>3.99</v>
       </c>
       <c r="S311">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="T311">
-        <v>31.6</v>
+        <v>48.3</v>
       </c>
       <c r="U311">
-        <v>19.3</v>
+        <v>20.3</v>
       </c>
       <c r="V311">
-        <v>49.1</v>
+        <v>31.4</v>
       </c>
       <c r="W311">
-        <v>11.4</v>
+        <v>16.2</v>
       </c>
       <c r="X311">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="Y311">
-        <v>52.7</v>
+        <v>53.4</v>
       </c>
       <c r="Z311">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="AA311" t="s">
         <v>182</v>

--- a/assets/Season_Aggregated_Pitcher_Statistics.xlsx
+++ b/assets/Season_Aggregated_Pitcher_Statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6344" uniqueCount="487">
   <si>
     <t>Pitcher</t>
   </si>
@@ -1390,9 +1390,6 @@
     <t>Cristopher Sánchez</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Martín Pérez</t>
   </si>
   <si>
@@ -16363,7 +16360,7 @@
         <v>253</v>
       </c>
       <c r="AB175" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -16449,7 +16446,7 @@
         <v>253</v>
       </c>
       <c r="AB176" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -16535,7 +16532,7 @@
         <v>116</v>
       </c>
       <c r="AB177" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16621,7 +16618,7 @@
         <v>116</v>
       </c>
       <c r="AB178" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -16879,7 +16876,7 @@
         <v>118</v>
       </c>
       <c r="AB181" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16965,7 +16962,7 @@
         <v>118</v>
       </c>
       <c r="AB182" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -17048,7 +17045,7 @@
         <v>3.820000000000001E+113</v>
       </c>
       <c r="AB183" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -17131,7 +17128,7 @@
         <v>2.959999999999998E+113</v>
       </c>
       <c r="AB184" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -17217,7 +17214,7 @@
         <v>120</v>
       </c>
       <c r="AB185" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -17303,7 +17300,7 @@
         <v>120</v>
       </c>
       <c r="AB186" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -17389,7 +17386,7 @@
         <v>121</v>
       </c>
       <c r="AB187" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -17475,7 +17472,7 @@
         <v>121</v>
       </c>
       <c r="AB188" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17558,7 +17555,7 @@
         <v>4.540000000000004E+95</v>
       </c>
       <c r="AB189" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -17641,7 +17638,7 @@
         <v>2.23E+95</v>
       </c>
       <c r="AB190" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -17727,7 +17724,7 @@
         <v>123</v>
       </c>
       <c r="AB191" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17813,7 +17810,7 @@
         <v>123</v>
       </c>
       <c r="AB192" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17899,7 +17896,7 @@
         <v>124</v>
       </c>
       <c r="AB193" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17985,7 +17982,7 @@
         <v>124</v>
       </c>
       <c r="AB194" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -18071,7 +18068,7 @@
         <v>125</v>
       </c>
       <c r="AB195" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -18157,7 +18154,7 @@
         <v>125</v>
       </c>
       <c r="AB196" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -18243,7 +18240,7 @@
         <v>126</v>
       </c>
       <c r="AB197" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -18329,7 +18326,7 @@
         <v>126</v>
       </c>
       <c r="AB198" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -18415,7 +18412,7 @@
         <v>127</v>
       </c>
       <c r="AB199" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -18501,7 +18498,7 @@
         <v>127</v>
       </c>
       <c r="AB200" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -18587,7 +18584,7 @@
         <v>128</v>
       </c>
       <c r="AB201" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -18673,7 +18670,7 @@
         <v>128</v>
       </c>
       <c r="AB202" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -18759,7 +18756,7 @@
         <v>129</v>
       </c>
       <c r="AB203" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18845,7 +18842,7 @@
         <v>129</v>
       </c>
       <c r="AB204" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18931,7 +18928,7 @@
         <v>427</v>
       </c>
       <c r="AB205" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -19017,7 +19014,7 @@
         <v>427</v>
       </c>
       <c r="AB206" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -19103,7 +19100,7 @@
         <v>131</v>
       </c>
       <c r="AB207" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -19189,7 +19186,7 @@
         <v>131</v>
       </c>
       <c r="AB208" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -19275,7 +19272,7 @@
         <v>132</v>
       </c>
       <c r="AB209" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -19361,7 +19358,7 @@
         <v>132</v>
       </c>
       <c r="AB210" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -19447,7 +19444,7 @@
         <v>133</v>
       </c>
       <c r="AB211" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -19533,7 +19530,7 @@
         <v>133</v>
       </c>
       <c r="AB212" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -19616,7 +19613,7 @@
         <v>2.92E+63</v>
       </c>
       <c r="AB213" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19699,7 +19696,7 @@
         <v>4.480000000000001E+63</v>
       </c>
       <c r="AB214" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19785,7 +19782,7 @@
         <v>135</v>
       </c>
       <c r="AB215" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19871,7 +19868,7 @@
         <v>135</v>
       </c>
       <c r="AB216" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19957,7 +19954,7 @@
         <v>136</v>
       </c>
       <c r="AB217" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -20043,7 +20040,7 @@
         <v>136</v>
       </c>
       <c r="AB218" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -20129,7 +20126,7 @@
         <v>137</v>
       </c>
       <c r="AB219" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -20215,7 +20212,7 @@
         <v>137</v>
       </c>
       <c r="AB220" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -20301,7 +20298,7 @@
         <v>138</v>
       </c>
       <c r="AB221" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -20387,7 +20384,7 @@
         <v>138</v>
       </c>
       <c r="AB222" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -20473,7 +20470,7 @@
         <v>139</v>
       </c>
       <c r="AB223" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -20559,7 +20556,7 @@
         <v>139</v>
       </c>
       <c r="AB224" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -20645,7 +20642,7 @@
         <v>140</v>
       </c>
       <c r="AB225" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -20731,7 +20728,7 @@
         <v>140</v>
       </c>
       <c r="AB226" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -20817,7 +20814,7 @@
         <v>141</v>
       </c>
       <c r="AB227" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20903,7 +20900,7 @@
         <v>141</v>
       </c>
       <c r="AB228" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:28">
@@ -21161,7 +21158,7 @@
         <v>143</v>
       </c>
       <c r="AB231" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -21247,7 +21244,7 @@
         <v>143</v>
       </c>
       <c r="AB232" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="233" spans="1:28">
@@ -21333,7 +21330,7 @@
         <v>144</v>
       </c>
       <c r="AB233" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -21419,7 +21416,7 @@
         <v>144</v>
       </c>
       <c r="AB234" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -21505,7 +21502,7 @@
         <v>145</v>
       </c>
       <c r="AB235" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -21591,7 +21588,7 @@
         <v>145</v>
       </c>
       <c r="AB236" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -21677,7 +21674,7 @@
         <v>451</v>
       </c>
       <c r="AB237" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -21763,7 +21760,7 @@
         <v>451</v>
       </c>
       <c r="AB238" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21849,7 +21846,7 @@
         <v>147</v>
       </c>
       <c r="AB239" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21935,7 +21932,7 @@
         <v>147</v>
       </c>
       <c r="AB240" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -22021,7 +22018,7 @@
         <v>148</v>
       </c>
       <c r="AB241" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -22107,7 +22104,7 @@
         <v>148</v>
       </c>
       <c r="AB242" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:28">
@@ -22193,7 +22190,7 @@
         <v>149</v>
       </c>
       <c r="AB243" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -22279,7 +22276,7 @@
         <v>149</v>
       </c>
       <c r="AB244" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -22365,7 +22362,7 @@
         <v>150</v>
       </c>
       <c r="AB245" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -22451,7 +22448,7 @@
         <v>150</v>
       </c>
       <c r="AB246" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -22537,7 +22534,7 @@
         <v>151</v>
       </c>
       <c r="AB247" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="248" spans="1:28">
@@ -22623,7 +22620,7 @@
         <v>151</v>
       </c>
       <c r="AB248" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -22709,7 +22706,7 @@
         <v>152</v>
       </c>
       <c r="AB249" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -22795,7 +22792,7 @@
         <v>152</v>
       </c>
       <c r="AB250" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22881,7 +22878,7 @@
         <v>153</v>
       </c>
       <c r="AB251" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22967,7 +22964,7 @@
         <v>153</v>
       </c>
       <c r="AB252" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -23053,7 +23050,7 @@
         <v>154</v>
       </c>
       <c r="AB253" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="254" spans="1:28">
@@ -23139,7 +23136,7 @@
         <v>154</v>
       </c>
       <c r="AB254" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -23225,7 +23222,7 @@
         <v>155</v>
       </c>
       <c r="AB255" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -23311,7 +23308,7 @@
         <v>155</v>
       </c>
       <c r="AB256" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -23397,7 +23394,7 @@
         <v>156</v>
       </c>
       <c r="AB257" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="258" spans="1:28">
@@ -23483,7 +23480,7 @@
         <v>156</v>
       </c>
       <c r="AB258" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -23569,7 +23566,7 @@
         <v>157</v>
       </c>
       <c r="AB259" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -23655,7 +23652,7 @@
         <v>157</v>
       </c>
       <c r="AB260" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -23741,7 +23738,7 @@
         <v>102</v>
       </c>
       <c r="AB261" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -23827,7 +23824,7 @@
         <v>102</v>
       </c>
       <c r="AB262" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="263" spans="1:28">
@@ -23913,7 +23910,7 @@
         <v>159</v>
       </c>
       <c r="AB263" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="264" spans="1:28">
@@ -23999,7 +23996,7 @@
         <v>159</v>
       </c>
       <c r="AB264" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -24085,7 +24082,7 @@
         <v>429</v>
       </c>
       <c r="AB265" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -24171,7 +24168,7 @@
         <v>429</v>
       </c>
       <c r="AB266" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -24257,7 +24254,7 @@
         <v>161</v>
       </c>
       <c r="AB267" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -24343,7 +24340,7 @@
         <v>161</v>
       </c>
       <c r="AB268" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="269" spans="1:28">
@@ -24429,7 +24426,7 @@
         <v>162</v>
       </c>
       <c r="AB269" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -24515,7 +24512,7 @@
         <v>162</v>
       </c>
       <c r="AB270" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="271" spans="1:28">
@@ -24601,7 +24598,7 @@
         <v>163</v>
       </c>
       <c r="AB271" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="272" spans="1:28">
@@ -24687,7 +24684,7 @@
         <v>163</v>
       </c>
       <c r="AB272" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="273" spans="1:28">
@@ -24773,7 +24770,7 @@
         <v>164</v>
       </c>
       <c r="AB273" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24859,7 +24856,7 @@
         <v>164</v>
       </c>
       <c r="AB274" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="275" spans="1:28">
@@ -25117,7 +25114,7 @@
         <v>430</v>
       </c>
       <c r="AB277" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="278" spans="1:28">
@@ -25203,7 +25200,7 @@
         <v>430</v>
       </c>
       <c r="AB278" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="279" spans="1:28">
@@ -25289,7 +25286,7 @@
         <v>167</v>
       </c>
       <c r="AB279" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="280" spans="1:28">
@@ -25375,7 +25372,7 @@
         <v>167</v>
       </c>
       <c r="AB280" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" spans="1:28">
@@ -25461,7 +25458,7 @@
         <v>168</v>
       </c>
       <c r="AB281" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="282" spans="1:28">
@@ -25547,7 +25544,7 @@
         <v>168</v>
       </c>
       <c r="AB282" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="283" spans="1:28">
@@ -25633,7 +25630,7 @@
         <v>169</v>
       </c>
       <c r="AB283" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:28">
@@ -25719,7 +25716,7 @@
         <v>169</v>
       </c>
       <c r="AB284" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:28">
@@ -25805,7 +25802,7 @@
         <v>170</v>
       </c>
       <c r="AB285" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="1:28">
@@ -25891,7 +25888,7 @@
         <v>170</v>
       </c>
       <c r="AB286" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="1:28">
@@ -25977,7 +25974,7 @@
         <v>171</v>
       </c>
       <c r="AB287" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="288" spans="1:28">
@@ -26063,7 +26060,7 @@
         <v>171</v>
       </c>
       <c r="AB288" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="289" spans="1:28">
@@ -26149,7 +26146,7 @@
         <v>172</v>
       </c>
       <c r="AB289" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="290" spans="1:28">
@@ -26235,7 +26232,7 @@
         <v>172</v>
       </c>
       <c r="AB290" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="291" spans="1:28">
@@ -26321,7 +26318,7 @@
         <v>173</v>
       </c>
       <c r="AB291" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="292" spans="1:28">
@@ -26407,7 +26404,7 @@
         <v>173</v>
       </c>
       <c r="AB292" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -26493,7 +26490,7 @@
         <v>174</v>
       </c>
       <c r="AB293" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -26579,7 +26576,7 @@
         <v>174</v>
       </c>
       <c r="AB294" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -26665,7 +26662,7 @@
         <v>175</v>
       </c>
       <c r="AB295" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -26751,7 +26748,7 @@
         <v>175</v>
       </c>
       <c r="AB296" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="297" spans="1:28">
@@ -26837,7 +26834,7 @@
         <v>176</v>
       </c>
       <c r="AB297" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26923,7 +26920,7 @@
         <v>176</v>
       </c>
       <c r="AB298" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="299" spans="1:28">
@@ -27006,7 +27003,7 @@
         <v>20.6</v>
       </c>
       <c r="AB299" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="300" spans="1:28">
@@ -27089,7 +27086,7 @@
         <v>50.2</v>
       </c>
       <c r="AB300" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="301" spans="1:28">
@@ -27175,7 +27172,7 @@
         <v>178</v>
       </c>
       <c r="AB301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:28">
@@ -27261,7 +27258,7 @@
         <v>178</v>
       </c>
       <c r="AB302" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="303" spans="1:28">
@@ -27347,7 +27344,7 @@
         <v>179</v>
       </c>
       <c r="AB303" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:28">
@@ -27433,7 +27430,7 @@
         <v>179</v>
       </c>
       <c r="AB304" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:28">
@@ -27519,7 +27516,7 @@
         <v>180</v>
       </c>
       <c r="AB305" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="306" spans="1:28">
@@ -27605,7 +27602,7 @@
         <v>180</v>
       </c>
       <c r="AB306" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="307" spans="1:28">
@@ -27688,7 +27685,7 @@
         <v>41.7</v>
       </c>
       <c r="AB307" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="308" spans="1:28">
@@ -27771,7 +27768,7 @@
         <v>30</v>
       </c>
       <c r="AB308" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="309" spans="1:28">
@@ -27857,7 +27854,7 @@
         <v>182</v>
       </c>
       <c r="AB309" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="310" spans="1:28">
@@ -27943,7 +27940,7 @@
         <v>182</v>
       </c>
       <c r="AB310" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="311" spans="1:28">
@@ -28029,7 +28026,7 @@
         <v>183</v>
       </c>
       <c r="AB311" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="312" spans="1:28">
@@ -28115,7 +28112,7 @@
         <v>183</v>
       </c>
       <c r="AB312" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" spans="1:28">
@@ -28201,7 +28198,7 @@
         <v>184</v>
       </c>
       <c r="AB313" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="314" spans="1:28">
@@ -28287,7 +28284,7 @@
         <v>184</v>
       </c>
       <c r="AB314" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="315" spans="1:28">
@@ -28370,7 +28367,7 @@
         <v>36.2</v>
       </c>
       <c r="AB315" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="316" spans="1:28">
@@ -28453,7 +28450,7 @@
         <v>44.3</v>
       </c>
       <c r="AB316" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="317" spans="1:28">
@@ -28539,7 +28536,7 @@
         <v>186</v>
       </c>
       <c r="AB317" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="318" spans="1:28">
@@ -28625,7 +28622,7 @@
         <v>186</v>
       </c>
       <c r="AB318" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -28711,7 +28708,7 @@
         <v>187</v>
       </c>
       <c r="AB319" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="320" spans="1:28">
@@ -28797,7 +28794,7 @@
         <v>187</v>
       </c>
       <c r="AB320" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="321" spans="1:28">
@@ -28883,7 +28880,7 @@
         <v>188</v>
       </c>
       <c r="AB321" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="322" spans="1:28">
@@ -28969,7 +28966,7 @@
         <v>188</v>
       </c>
       <c r="AB322" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="323" spans="1:28">
@@ -29055,7 +29052,7 @@
         <v>189</v>
       </c>
       <c r="AB323" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="324" spans="1:28">
@@ -29141,7 +29138,7 @@
         <v>189</v>
       </c>
       <c r="AB324" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="325" spans="1:28">
@@ -29227,7 +29224,7 @@
         <v>190</v>
       </c>
       <c r="AB325" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="326" spans="1:28">
@@ -29313,7 +29310,7 @@
         <v>190</v>
       </c>
       <c r="AB326" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="327" spans="1:28">
@@ -29399,7 +29396,7 @@
         <v>191</v>
       </c>
       <c r="AB327" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="328" spans="1:28">
@@ -29485,7 +29482,7 @@
         <v>191</v>
       </c>
       <c r="AB328" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="329" spans="1:28">
@@ -29571,7 +29568,7 @@
         <v>452</v>
       </c>
       <c r="AB329" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="330" spans="1:28">
@@ -29657,7 +29654,7 @@
         <v>452</v>
       </c>
       <c r="AB330" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -29743,7 +29740,7 @@
         <v>193</v>
       </c>
       <c r="AB331" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29829,7 +29826,7 @@
         <v>193</v>
       </c>
       <c r="AB332" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29915,7 +29912,7 @@
         <v>194</v>
       </c>
       <c r="AB333" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -30001,7 +29998,7 @@
         <v>194</v>
       </c>
       <c r="AB334" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -30087,7 +30084,7 @@
         <v>195</v>
       </c>
       <c r="AB335" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -30173,7 +30170,7 @@
         <v>195</v>
       </c>
       <c r="AB336" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -30259,7 +30256,7 @@
         <v>196</v>
       </c>
       <c r="AB337" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="338" spans="1:28">
@@ -30345,7 +30342,7 @@
         <v>196</v>
       </c>
       <c r="AB338" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="339" spans="1:28">
@@ -30431,7 +30428,7 @@
         <v>197</v>
       </c>
       <c r="AB339" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="340" spans="1:28">
@@ -30517,7 +30514,7 @@
         <v>197</v>
       </c>
       <c r="AB340" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="341" spans="1:28">
@@ -30603,7 +30600,7 @@
         <v>198</v>
       </c>
       <c r="AB341" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="342" spans="1:28">
@@ -30689,7 +30686,7 @@
         <v>198</v>
       </c>
       <c r="AB342" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="343" spans="1:28">
@@ -30775,7 +30772,7 @@
         <v>199</v>
       </c>
       <c r="AB343" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="344" spans="1:28">
@@ -30861,7 +30858,7 @@
         <v>199</v>
       </c>
       <c r="AB344" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="345" spans="1:28">
@@ -30947,7 +30944,7 @@
         <v>200</v>
       </c>
       <c r="AB345" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="346" spans="1:28">
@@ -31033,7 +31030,7 @@
         <v>200</v>
       </c>
       <c r="AB346" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="347" spans="1:28">
@@ -31119,7 +31116,7 @@
         <v>201</v>
       </c>
       <c r="AB347" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="348" spans="1:28">
@@ -31205,7 +31202,7 @@
         <v>201</v>
       </c>
       <c r="AB348" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="349" spans="1:28">
@@ -31291,7 +31288,7 @@
         <v>202</v>
       </c>
       <c r="AB349" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="350" spans="1:28">
@@ -31377,7 +31374,7 @@
         <v>202</v>
       </c>
       <c r="AB350" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="351" spans="1:28">
@@ -31463,7 +31460,7 @@
         <v>203</v>
       </c>
       <c r="AB351" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="352" spans="1:28">
@@ -31549,7 +31546,7 @@
         <v>203</v>
       </c>
       <c r="AB352" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="353" spans="1:28">
@@ -31635,7 +31632,7 @@
         <v>204</v>
       </c>
       <c r="AB353" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31721,7 +31718,7 @@
         <v>204</v>
       </c>
       <c r="AB354" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="355" spans="1:28">
@@ -31807,7 +31804,7 @@
         <v>205</v>
       </c>
       <c r="AB355" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="356" spans="1:28">
@@ -31893,7 +31890,7 @@
         <v>205</v>
       </c>
       <c r="AB356" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="357" spans="1:28">
@@ -31979,7 +31976,7 @@
         <v>206</v>
       </c>
       <c r="AB357" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="358" spans="1:28">
@@ -32065,7 +32062,7 @@
         <v>206</v>
       </c>
       <c r="AB358" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="359" spans="1:28">
@@ -32151,7 +32148,7 @@
         <v>207</v>
       </c>
       <c r="AB359" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="360" spans="1:28">
@@ -32237,7 +32234,7 @@
         <v>207</v>
       </c>
       <c r="AB360" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="361" spans="1:28">
@@ -32495,7 +32492,7 @@
         <v>209</v>
       </c>
       <c r="AB363" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="364" spans="1:28">
@@ -32581,7 +32578,7 @@
         <v>209</v>
       </c>
       <c r="AB364" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="365" spans="1:28">
@@ -32667,7 +32664,7 @@
         <v>210</v>
       </c>
       <c r="AB365" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:28">
@@ -32753,7 +32750,7 @@
         <v>210</v>
       </c>
       <c r="AB366" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="367" spans="1:28">
@@ -32839,7 +32836,7 @@
         <v>211</v>
       </c>
       <c r="AB367" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="368" spans="1:28">
@@ -32925,7 +32922,7 @@
         <v>211</v>
       </c>
       <c r="AB368" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="369" spans="1:28">
@@ -33011,7 +33008,7 @@
         <v>212</v>
       </c>
       <c r="AB369" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="370" spans="1:28">
@@ -33097,7 +33094,7 @@
         <v>212</v>
       </c>
       <c r="AB370" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="371" spans="1:28">
@@ -33183,7 +33180,7 @@
         <v>213</v>
       </c>
       <c r="AB371" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:28">
@@ -33269,7 +33266,7 @@
         <v>213</v>
       </c>
       <c r="AB372" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="373" spans="1:28">
@@ -33355,7 +33352,7 @@
         <v>214</v>
       </c>
       <c r="AB373" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="374" spans="1:28">
@@ -33441,7 +33438,7 @@
         <v>214</v>
       </c>
       <c r="AB374" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="375" spans="1:28">
@@ -33524,7 +33521,7 @@
         <v>31.3</v>
       </c>
       <c r="AB375" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="376" spans="1:28">
@@ -33607,7 +33604,7 @@
         <v>21.4</v>
       </c>
       <c r="AB376" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="377" spans="1:28">
@@ -33693,7 +33690,7 @@
         <v>216</v>
       </c>
       <c r="AB377" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="378" spans="1:28">
@@ -33779,7 +33776,7 @@
         <v>216</v>
       </c>
       <c r="AB378" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="1:28">
@@ -33862,7 +33859,7 @@
         <v>35.6</v>
       </c>
       <c r="AB379" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="380" spans="1:28">
@@ -33945,7 +33942,7 @@
         <v>41.5</v>
       </c>
       <c r="AB380" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="381" spans="1:28">
@@ -34031,7 +34028,7 @@
         <v>218</v>
       </c>
       <c r="AB381" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="382" spans="1:28">
@@ -34117,7 +34114,7 @@
         <v>218</v>
       </c>
       <c r="AB382" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="383" spans="1:28">
@@ -34203,7 +34200,7 @@
         <v>219</v>
       </c>
       <c r="AB383" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="1:28">
@@ -34289,7 +34286,7 @@
         <v>219</v>
       </c>
       <c r="AB384" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="385" spans="1:28">
@@ -34375,7 +34372,7 @@
         <v>220</v>
       </c>
       <c r="AB385" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="386" spans="1:28">
@@ -34461,7 +34458,7 @@
         <v>220</v>
       </c>
       <c r="AB386" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="387" spans="1:28">
@@ -34547,7 +34544,7 @@
         <v>221</v>
       </c>
       <c r="AB387" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="388" spans="1:28">
@@ -34633,7 +34630,7 @@
         <v>221</v>
       </c>
       <c r="AB388" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="389" spans="1:28">
@@ -34719,7 +34716,7 @@
         <v>222</v>
       </c>
       <c r="AB389" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="390" spans="1:28">
@@ -34805,7 +34802,7 @@
         <v>222</v>
       </c>
       <c r="AB390" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="391" spans="1:28">
@@ -35063,7 +35060,7 @@
         <v>453</v>
       </c>
       <c r="AB393" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="394" spans="1:28">
@@ -35149,7 +35146,7 @@
         <v>453</v>
       </c>
       <c r="AB394" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="395" spans="1:28">
@@ -35235,7 +35232,7 @@
         <v>225</v>
       </c>
       <c r="AB395" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="396" spans="1:28">
@@ -35321,7 +35318,7 @@
         <v>225</v>
       </c>
       <c r="AB396" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="397" spans="1:28">
@@ -35407,7 +35404,7 @@
         <v>226</v>
       </c>
       <c r="AB397" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="398" spans="1:28">
@@ -35493,7 +35490,7 @@
         <v>226</v>
       </c>
       <c r="AB398" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="399" spans="1:28">
@@ -35579,7 +35576,7 @@
         <v>454</v>
       </c>
       <c r="AB399" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="400" spans="1:28">
@@ -35665,7 +35662,7 @@
         <v>454</v>
       </c>
       <c r="AB400" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="401" spans="1:28">
@@ -35751,7 +35748,7 @@
         <v>228</v>
       </c>
       <c r="AB401" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="402" spans="1:28">
@@ -35837,7 +35834,7 @@
         <v>228</v>
       </c>
       <c r="AB402" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="403" spans="1:28">
@@ -35923,7 +35920,7 @@
         <v>229</v>
       </c>
       <c r="AB403" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="404" spans="1:28">
@@ -36009,7 +36006,7 @@
         <v>229</v>
       </c>
       <c r="AB404" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="405" spans="1:28">
@@ -36095,7 +36092,7 @@
         <v>230</v>
       </c>
       <c r="AB405" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="406" spans="1:28">
@@ -36181,7 +36178,7 @@
         <v>230</v>
       </c>
       <c r="AB406" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="407" spans="1:28">
@@ -36267,7 +36264,7 @@
         <v>231</v>
       </c>
       <c r="AB407" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="408" spans="1:28">
@@ -36353,7 +36350,7 @@
         <v>231</v>
       </c>
       <c r="AB408" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="409" spans="1:28">
@@ -36439,7 +36436,7 @@
         <v>232</v>
       </c>
       <c r="AB409" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="410" spans="1:28">
@@ -36525,7 +36522,7 @@
         <v>232</v>
       </c>
       <c r="AB410" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="411" spans="1:28">
@@ -36611,7 +36608,7 @@
         <v>233</v>
       </c>
       <c r="AB411" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="412" spans="1:28">
@@ -36697,7 +36694,7 @@
         <v>233</v>
       </c>
       <c r="AB412" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="413" spans="1:28">
@@ -36955,7 +36952,7 @@
         <v>235</v>
       </c>
       <c r="AB415" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="416" spans="1:28">
@@ -37041,7 +37038,7 @@
         <v>235</v>
       </c>
       <c r="AB416" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="417" spans="1:28">
@@ -37127,7 +37124,7 @@
         <v>236</v>
       </c>
       <c r="AB417" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="418" spans="1:28">
@@ -37213,7 +37210,7 @@
         <v>236</v>
       </c>
       <c r="AB418" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="419" spans="1:28">
@@ -37299,7 +37296,7 @@
         <v>237</v>
       </c>
       <c r="AB419" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="1:28">
@@ -37385,7 +37382,7 @@
         <v>237</v>
       </c>
       <c r="AB420" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="421" spans="1:28">
@@ -37471,7 +37468,7 @@
         <v>238</v>
       </c>
       <c r="AB421" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="422" spans="1:28">
@@ -37557,7 +37554,7 @@
         <v>238</v>
       </c>
       <c r="AB422" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="423" spans="1:28">
@@ -37643,7 +37640,7 @@
         <v>239</v>
       </c>
       <c r="AB423" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="424" spans="1:28">
@@ -37729,7 +37726,7 @@
         <v>239</v>
       </c>
       <c r="AB424" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="425" spans="1:28">
@@ -37815,7 +37812,7 @@
         <v>240</v>
       </c>
       <c r="AB425" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:28">
@@ -37901,7 +37898,7 @@
         <v>240</v>
       </c>
       <c r="AB426" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="427" spans="1:28">
@@ -37987,7 +37984,7 @@
         <v>241</v>
       </c>
       <c r="AB427" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="428" spans="1:28">
@@ -38073,7 +38070,7 @@
         <v>241</v>
       </c>
       <c r="AB428" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="429" spans="1:28">
@@ -38159,7 +38156,7 @@
         <v>242</v>
       </c>
       <c r="AB429" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="430" spans="1:28">
@@ -38245,7 +38242,7 @@
         <v>242</v>
       </c>
       <c r="AB430" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="431" spans="1:28">
@@ -38331,7 +38328,7 @@
         <v>243</v>
       </c>
       <c r="AB431" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="432" spans="1:28">
@@ -38417,7 +38414,7 @@
         <v>243</v>
       </c>
       <c r="AB432" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="433" spans="1:28">
@@ -38503,7 +38500,7 @@
         <v>244</v>
       </c>
       <c r="AB433" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="434" spans="1:28">
@@ -38589,7 +38586,7 @@
         <v>244</v>
       </c>
       <c r="AB434" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="1:28">
@@ -38675,7 +38672,7 @@
         <v>245</v>
       </c>
       <c r="AB435" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="436" spans="1:28">
@@ -38761,7 +38758,7 @@
         <v>245</v>
       </c>
       <c r="AB436" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="437" spans="1:28">
@@ -38847,7 +38844,7 @@
         <v>246</v>
       </c>
       <c r="AB437" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="438" spans="1:28">
@@ -38933,7 +38930,7 @@
         <v>246</v>
       </c>
       <c r="AB438" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="439" spans="1:28">
@@ -39019,7 +39016,7 @@
         <v>247</v>
       </c>
       <c r="AB439" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:28">
@@ -39105,7 +39102,7 @@
         <v>247</v>
       </c>
       <c r="AB440" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:28">
@@ -39191,7 +39188,7 @@
         <v>248</v>
       </c>
       <c r="AB441" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" spans="1:28">
@@ -39277,7 +39274,7 @@
         <v>248</v>
       </c>
       <c r="AB442" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" spans="1:28">
@@ -39363,7 +39360,7 @@
         <v>435</v>
       </c>
       <c r="AB443" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="444" spans="1:28">
@@ -39449,7 +39446,7 @@
         <v>435</v>
       </c>
       <c r="AB444" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="445" spans="1:28">
@@ -39535,7 +39532,7 @@
         <v>250</v>
       </c>
       <c r="AB445" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="446" spans="1:28">
@@ -39621,7 +39618,7 @@
         <v>250</v>
       </c>
       <c r="AB446" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="447" spans="1:28">
@@ -39707,7 +39704,7 @@
         <v>251</v>
       </c>
       <c r="AB447" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="448" spans="1:28">
@@ -39793,7 +39790,7 @@
         <v>251</v>
       </c>
       <c r="AB448" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="449" spans="1:28">
@@ -39879,7 +39876,7 @@
         <v>252</v>
       </c>
       <c r="AB449" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="450" spans="1:28">
@@ -39965,7 +39962,7 @@
         <v>252</v>
       </c>
       <c r="AB450" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="451" spans="1:28">
@@ -40051,7 +40048,7 @@
         <v>253</v>
       </c>
       <c r="AB451" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="452" spans="1:28">
@@ -40137,7 +40134,7 @@
         <v>253</v>
       </c>
       <c r="AB452" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="453" spans="1:28">
@@ -40223,7 +40220,7 @@
         <v>254</v>
       </c>
       <c r="AB453" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="454" spans="1:28">
@@ -40309,7 +40306,7 @@
         <v>254</v>
       </c>
       <c r="AB454" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="455" spans="1:28">
@@ -40567,7 +40564,7 @@
         <v>256</v>
       </c>
       <c r="AB457" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="458" spans="1:28">
@@ -40653,7 +40650,7 @@
         <v>256</v>
       </c>
       <c r="AB458" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="459" spans="1:28">
@@ -40739,7 +40736,7 @@
         <v>257</v>
       </c>
       <c r="AB459" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="460" spans="1:28">
@@ -40825,7 +40822,7 @@
         <v>257</v>
       </c>
       <c r="AB460" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="461" spans="1:28">
@@ -40911,7 +40908,7 @@
         <v>258</v>
       </c>
       <c r="AB461" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="1:28">
@@ -40997,7 +40994,7 @@
         <v>258</v>
       </c>
       <c r="AB462" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="1:28">
@@ -41083,7 +41080,7 @@
         <v>259</v>
       </c>
       <c r="AB463" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="464" spans="1:28">
@@ -41169,7 +41166,7 @@
         <v>259</v>
       </c>
       <c r="AB464" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="465" spans="1:28">
@@ -41255,7 +41252,7 @@
         <v>260</v>
       </c>
       <c r="AB465" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="466" spans="1:28">
@@ -41341,7 +41338,7 @@
         <v>260</v>
       </c>
       <c r="AB466" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="467" spans="1:28">
@@ -41427,7 +41424,7 @@
         <v>261</v>
       </c>
       <c r="AB467" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:28">
@@ -41513,7 +41510,7 @@
         <v>261</v>
       </c>
       <c r="AB468" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="469" spans="1:28">
@@ -41599,7 +41596,7 @@
         <v>262</v>
       </c>
       <c r="AB469" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="470" spans="1:28">
@@ -41685,7 +41682,7 @@
         <v>262</v>
       </c>
       <c r="AB470" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="471" spans="1:28">
@@ -41771,7 +41768,7 @@
         <v>263</v>
       </c>
       <c r="AB471" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:28">
@@ -41857,7 +41854,7 @@
         <v>263</v>
       </c>
       <c r="AB472" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="473" spans="1:28">
@@ -41943,7 +41940,7 @@
         <v>264</v>
       </c>
       <c r="AB473" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="474" spans="1:28">
@@ -42029,7 +42026,7 @@
         <v>264</v>
       </c>
       <c r="AB474" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="475" spans="1:28">
@@ -42115,7 +42112,7 @@
         <v>265</v>
       </c>
       <c r="AB475" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="476" spans="1:28">
@@ -42201,7 +42198,7 @@
         <v>265</v>
       </c>
       <c r="AB476" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="477" spans="1:28">
@@ -42287,7 +42284,7 @@
         <v>266</v>
       </c>
       <c r="AB477" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="478" spans="1:28">
@@ -42373,7 +42370,7 @@
         <v>266</v>
       </c>
       <c r="AB478" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="479" spans="1:28">
@@ -42459,7 +42456,7 @@
         <v>267</v>
       </c>
       <c r="AB479" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="480" spans="1:28">
@@ -42545,7 +42542,7 @@
         <v>267</v>
       </c>
       <c r="AB480" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="481" spans="1:28">
@@ -42631,7 +42628,7 @@
         <v>436</v>
       </c>
       <c r="AB481" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:28">
@@ -42717,7 +42714,7 @@
         <v>436</v>
       </c>
       <c r="AB482" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="483" spans="1:28">
@@ -42803,7 +42800,7 @@
         <v>269</v>
       </c>
       <c r="AB483" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="484" spans="1:28">
@@ -42889,7 +42886,7 @@
         <v>269</v>
       </c>
       <c r="AB484" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="485" spans="1:28">
@@ -42975,7 +42972,7 @@
         <v>270</v>
       </c>
       <c r="AB485" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486" spans="1:28">
@@ -43061,7 +43058,7 @@
         <v>270</v>
       </c>
       <c r="AB486" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="487" spans="1:28">
@@ -43147,7 +43144,7 @@
         <v>271</v>
       </c>
       <c r="AB487" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="488" spans="1:28">
@@ -43233,7 +43230,7 @@
         <v>271</v>
       </c>
       <c r="AB488" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="489" spans="1:28">
@@ -43319,7 +43316,7 @@
         <v>272</v>
       </c>
       <c r="AB489" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="490" spans="1:28">
@@ -43405,7 +43402,7 @@
         <v>272</v>
       </c>
       <c r="AB490" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="491" spans="1:28">
@@ -43491,7 +43488,7 @@
         <v>273</v>
       </c>
       <c r="AB491" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="492" spans="1:28">
@@ -43577,7 +43574,7 @@
         <v>273</v>
       </c>
       <c r="AB492" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="493" spans="1:28">
@@ -43663,7 +43660,7 @@
         <v>274</v>
       </c>
       <c r="AB493" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="494" spans="1:28">
@@ -43749,7 +43746,7 @@
         <v>274</v>
       </c>
       <c r="AB494" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="495" spans="1:28">
@@ -43835,7 +43832,7 @@
         <v>275</v>
       </c>
       <c r="AB495" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="496" spans="1:28">
@@ -43921,7 +43918,7 @@
         <v>275</v>
       </c>
       <c r="AB496" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="497" spans="1:28">
@@ -44007,7 +44004,7 @@
         <v>276</v>
       </c>
       <c r="AB497" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="498" spans="1:28">
@@ -44093,7 +44090,7 @@
         <v>276</v>
       </c>
       <c r="AB498" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="499" spans="1:28">
@@ -44179,7 +44176,7 @@
         <v>277</v>
       </c>
       <c r="AB499" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="500" spans="1:28">
@@ -44265,7 +44262,7 @@
         <v>277</v>
       </c>
       <c r="AB500" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="501" spans="1:28">
@@ -44351,7 +44348,7 @@
         <v>278</v>
       </c>
       <c r="AB501" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="502" spans="1:28">
@@ -44437,7 +44434,7 @@
         <v>278</v>
       </c>
       <c r="AB502" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="503" spans="1:28">
@@ -44523,7 +44520,7 @@
         <v>279</v>
       </c>
       <c r="AB503" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="504" spans="1:28">
@@ -44609,7 +44606,7 @@
         <v>279</v>
       </c>
       <c r="AB504" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="505" spans="1:28">
@@ -44695,7 +44692,7 @@
         <v>280</v>
       </c>
       <c r="AB505" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="506" spans="1:28">
@@ -44781,7 +44778,7 @@
         <v>280</v>
       </c>
       <c r="AB506" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="507" spans="1:28">
@@ -44867,7 +44864,7 @@
         <v>281</v>
       </c>
       <c r="AB507" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="508" spans="1:28">
@@ -44953,7 +44950,7 @@
         <v>281</v>
       </c>
       <c r="AB508" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="509" spans="1:28">
@@ -45039,7 +45036,7 @@
         <v>282</v>
       </c>
       <c r="AB509" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="510" spans="1:28">
@@ -45125,7 +45122,7 @@
         <v>282</v>
       </c>
       <c r="AB510" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="511" spans="1:28">
@@ -45211,7 +45208,7 @@
         <v>283</v>
       </c>
       <c r="AB511" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="512" spans="1:28">
@@ -45297,7 +45294,7 @@
         <v>283</v>
       </c>
       <c r="AB512" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="513" spans="1:28">
@@ -45383,7 +45380,7 @@
         <v>437</v>
       </c>
       <c r="AB513" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="514" spans="1:28">
@@ -45469,7 +45466,7 @@
         <v>437</v>
       </c>
       <c r="AB514" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="515" spans="1:28">
@@ -45555,7 +45552,7 @@
         <v>285</v>
       </c>
       <c r="AB515" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="516" spans="1:28">
@@ -45641,7 +45638,7 @@
         <v>285</v>
       </c>
       <c r="AB516" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="517" spans="1:28">
@@ -45899,7 +45896,7 @@
         <v>287</v>
       </c>
       <c r="AB519" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="520" spans="1:28">
@@ -45985,7 +45982,7 @@
         <v>287</v>
       </c>
       <c r="AB520" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="521" spans="1:28">
@@ -46071,7 +46068,7 @@
         <v>288</v>
       </c>
       <c r="AB521" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="522" spans="1:28">
@@ -46157,7 +46154,7 @@
         <v>288</v>
       </c>
       <c r="AB522" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="523" spans="1:28">
@@ -46243,7 +46240,7 @@
         <v>289</v>
       </c>
       <c r="AB523" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="524" spans="1:28">
@@ -46329,7 +46326,7 @@
         <v>289</v>
       </c>
       <c r="AB524" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="525" spans="1:28">
@@ -46415,7 +46412,7 @@
         <v>290</v>
       </c>
       <c r="AB525" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="526" spans="1:28">
@@ -46501,7 +46498,7 @@
         <v>290</v>
       </c>
       <c r="AB526" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="527" spans="1:28">
@@ -46587,7 +46584,7 @@
         <v>291</v>
       </c>
       <c r="AB527" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="528" spans="1:28">
@@ -46673,7 +46670,7 @@
         <v>291</v>
       </c>
       <c r="AB528" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="529" spans="1:28">
@@ -46759,7 +46756,7 @@
         <v>292</v>
       </c>
       <c r="AB529" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="530" spans="1:28">
@@ -46845,7 +46842,7 @@
         <v>292</v>
       </c>
       <c r="AB530" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="531" spans="1:28">
@@ -46931,7 +46928,7 @@
         <v>293</v>
       </c>
       <c r="AB531" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="532" spans="1:28">
@@ -47017,7 +47014,7 @@
         <v>293</v>
       </c>
       <c r="AB532" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="533" spans="1:28">
@@ -47103,7 +47100,7 @@
         <v>294</v>
       </c>
       <c r="AB533" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="534" spans="1:28">
@@ -47189,7 +47186,7 @@
         <v>294</v>
       </c>
       <c r="AB534" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="535" spans="1:28">
@@ -47275,7 +47272,7 @@
         <v>295</v>
       </c>
       <c r="AB535" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="536" spans="1:28">
@@ -47361,7 +47358,7 @@
         <v>295</v>
       </c>
       <c r="AB536" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="537" spans="1:28">
@@ -47447,7 +47444,7 @@
         <v>296</v>
       </c>
       <c r="AB537" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="538" spans="1:28">
@@ -47533,7 +47530,7 @@
         <v>296</v>
       </c>
       <c r="AB538" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="539" spans="1:28">
@@ -47619,7 +47616,7 @@
         <v>297</v>
       </c>
       <c r="AB539" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="540" spans="1:28">
@@ -47705,7 +47702,7 @@
         <v>297</v>
       </c>
       <c r="AB540" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="541" spans="1:28">
@@ -47791,7 +47788,7 @@
         <v>298</v>
       </c>
       <c r="AB541" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="542" spans="1:28">
@@ -47877,7 +47874,7 @@
         <v>298</v>
       </c>
       <c r="AB542" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="543" spans="1:28">
@@ -47963,7 +47960,7 @@
         <v>299</v>
       </c>
       <c r="AB543" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="544" spans="1:28">
@@ -48049,7 +48046,7 @@
         <v>299</v>
       </c>
       <c r="AB544" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="545" spans="1:28">
@@ -48135,7 +48132,7 @@
         <v>300</v>
       </c>
       <c r="AB545" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="546" spans="1:28">
@@ -48221,7 +48218,7 @@
         <v>300</v>
       </c>
       <c r="AB546" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="547" spans="1:28">
@@ -48307,7 +48304,7 @@
         <v>301</v>
       </c>
       <c r="AB547" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="548" spans="1:28">
@@ -48393,7 +48390,7 @@
         <v>301</v>
       </c>
       <c r="AB548" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="549" spans="1:28">
@@ -48479,7 +48476,7 @@
         <v>302</v>
       </c>
       <c r="AB549" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="550" spans="1:28">
@@ -48565,7 +48562,7 @@
         <v>302</v>
       </c>
       <c r="AB550" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="551" spans="1:28">
@@ -48651,7 +48648,7 @@
         <v>438</v>
       </c>
       <c r="AB551" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="552" spans="1:28">
@@ -48737,7 +48734,7 @@
         <v>438</v>
       </c>
       <c r="AB552" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="553" spans="1:28">
@@ -48823,7 +48820,7 @@
         <v>304</v>
       </c>
       <c r="AB553" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="554" spans="1:28">
@@ -48909,7 +48906,7 @@
         <v>304</v>
       </c>
       <c r="AB554" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="555" spans="1:28">
@@ -48995,7 +48992,7 @@
         <v>305</v>
       </c>
       <c r="AB555" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="556" spans="1:28">
@@ -49081,7 +49078,7 @@
         <v>305</v>
       </c>
       <c r="AB556" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="557" spans="1:28">
@@ -49167,7 +49164,7 @@
         <v>306</v>
       </c>
       <c r="AB557" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="558" spans="1:28">
@@ -49253,7 +49250,7 @@
         <v>306</v>
       </c>
       <c r="AB558" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="559" spans="1:28">
@@ -49339,7 +49336,7 @@
         <v>307</v>
       </c>
       <c r="AB559" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="560" spans="1:28">
@@ -49425,7 +49422,7 @@
         <v>307</v>
       </c>
       <c r="AB560" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="561" spans="1:28">
@@ -49511,7 +49508,7 @@
         <v>455</v>
       </c>
       <c r="AB561" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="562" spans="1:28">
@@ -49597,7 +49594,7 @@
         <v>455</v>
       </c>
       <c r="AB562" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="563" spans="1:28">
@@ -49683,7 +49680,7 @@
         <v>309</v>
       </c>
       <c r="AB563" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="564" spans="1:28">
@@ -49769,7 +49766,7 @@
         <v>309</v>
       </c>
       <c r="AB564" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="565" spans="1:28">
@@ -49855,7 +49852,7 @@
         <v>310</v>
       </c>
       <c r="AB565" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="566" spans="1:28">
@@ -49941,7 +49938,7 @@
         <v>310</v>
       </c>
       <c r="AB566" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="567" spans="1:28">
@@ -50027,7 +50024,7 @@
         <v>311</v>
       </c>
       <c r="AB567" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="568" spans="1:28">
@@ -50113,7 +50110,7 @@
         <v>311</v>
       </c>
       <c r="AB568" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="569" spans="1:28">
@@ -50199,7 +50196,7 @@
         <v>312</v>
       </c>
       <c r="AB569" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="570" spans="1:28">
@@ -50285,7 +50282,7 @@
         <v>312</v>
       </c>
       <c r="AB570" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="571" spans="1:28">
@@ -50371,7 +50368,7 @@
         <v>313</v>
       </c>
       <c r="AB571" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="572" spans="1:28">
@@ -50457,7 +50454,7 @@
         <v>313</v>
       </c>
       <c r="AB572" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="573" spans="1:28">
@@ -50543,7 +50540,7 @@
         <v>314</v>
       </c>
       <c r="AB573" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="574" spans="1:28">
@@ -50629,7 +50626,7 @@
         <v>314</v>
       </c>
       <c r="AB574" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="575" spans="1:28">
@@ -50715,7 +50712,7 @@
         <v>456</v>
       </c>
       <c r="AB575" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="576" spans="1:28">
@@ -50801,7 +50798,7 @@
         <v>456</v>
       </c>
       <c r="AB576" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="577" spans="1:28">
@@ -50887,7 +50884,7 @@
         <v>316</v>
       </c>
       <c r="AB577" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="578" spans="1:28">
@@ -50973,7 +50970,7 @@
         <v>316</v>
       </c>
       <c r="AB578" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="579" spans="1:28">
@@ -51059,7 +51056,7 @@
         <v>317</v>
       </c>
       <c r="AB579" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="580" spans="1:28">
@@ -51145,7 +51142,7 @@
         <v>317</v>
       </c>
       <c r="AB580" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="581" spans="1:28">
@@ -51231,7 +51228,7 @@
         <v>318</v>
       </c>
       <c r="AB581" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="582" spans="1:28">
@@ -51317,7 +51314,7 @@
         <v>318</v>
       </c>
       <c r="AB582" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="583" spans="1:28">
@@ -51403,7 +51400,7 @@
         <v>319</v>
       </c>
       <c r="AB583" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="584" spans="1:28">
@@ -51489,7 +51486,7 @@
         <v>319</v>
       </c>
       <c r="AB584" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="585" spans="1:28">
@@ -51575,7 +51572,7 @@
         <v>320</v>
       </c>
       <c r="AB585" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="586" spans="1:28">
@@ -51661,7 +51658,7 @@
         <v>320</v>
       </c>
       <c r="AB586" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="587" spans="1:28">
@@ -51747,7 +51744,7 @@
         <v>321</v>
       </c>
       <c r="AB587" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="588" spans="1:28">
@@ -51833,7 +51830,7 @@
         <v>321</v>
       </c>
       <c r="AB588" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="589" spans="1:28">
@@ -51919,7 +51916,7 @@
         <v>322</v>
       </c>
       <c r="AB589" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="590" spans="1:28">
@@ -52005,7 +52002,7 @@
         <v>322</v>
       </c>
       <c r="AB590" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="591" spans="1:28">
@@ -52091,7 +52088,7 @@
         <v>323</v>
       </c>
       <c r="AB591" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="592" spans="1:28">
@@ -52177,7 +52174,7 @@
         <v>323</v>
       </c>
       <c r="AB592" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="593" spans="1:28">
@@ -52263,7 +52260,7 @@
         <v>324</v>
       </c>
       <c r="AB593" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="594" spans="1:28">
@@ -52349,7 +52346,7 @@
         <v>324</v>
       </c>
       <c r="AB594" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="595" spans="1:28">
@@ -52435,7 +52432,7 @@
         <v>325</v>
       </c>
       <c r="AB595" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="596" spans="1:28">
@@ -52521,7 +52518,7 @@
         <v>325</v>
       </c>
       <c r="AB596" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="597" spans="1:28">
@@ -52779,7 +52776,7 @@
         <v>327</v>
       </c>
       <c r="AB599" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="600" spans="1:28">
@@ -52865,7 +52862,7 @@
         <v>327</v>
       </c>
       <c r="AB600" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="601" spans="1:28">
@@ -52951,7 +52948,7 @@
         <v>328</v>
       </c>
       <c r="AB601" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="602" spans="1:28">
@@ -53037,7 +53034,7 @@
         <v>328</v>
       </c>
       <c r="AB602" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="603" spans="1:28">
@@ -53123,7 +53120,7 @@
         <v>329</v>
       </c>
       <c r="AB603" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="604" spans="1:28">
@@ -53209,7 +53206,7 @@
         <v>329</v>
       </c>
       <c r="AB604" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="605" spans="1:28">
@@ -53295,7 +53292,7 @@
         <v>330</v>
       </c>
       <c r="AB605" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="606" spans="1:28">
@@ -53381,7 +53378,7 @@
         <v>330</v>
       </c>
       <c r="AB606" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="607" spans="1:28">
@@ -53467,7 +53464,7 @@
         <v>331</v>
       </c>
       <c r="AB607" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="608" spans="1:28">
@@ -53553,7 +53550,7 @@
         <v>331</v>
       </c>
       <c r="AB608" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="609" spans="1:28">
@@ -53639,7 +53636,7 @@
         <v>332</v>
       </c>
       <c r="AB609" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="610" spans="1:28">
@@ -53725,7 +53722,7 @@
         <v>332</v>
       </c>
       <c r="AB610" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="611" spans="1:28">
@@ -53811,7 +53808,7 @@
         <v>333</v>
       </c>
       <c r="AB611" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="612" spans="1:28">
@@ -53897,7 +53894,7 @@
         <v>333</v>
       </c>
       <c r="AB612" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="613" spans="1:28">
@@ -53983,7 +53980,7 @@
         <v>334</v>
       </c>
       <c r="AB613" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="614" spans="1:28">
@@ -54069,7 +54066,7 @@
         <v>334</v>
       </c>
       <c r="AB614" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="615" spans="1:28">
@@ -54155,7 +54152,7 @@
         <v>335</v>
       </c>
       <c r="AB615" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="616" spans="1:28">
@@ -54241,7 +54238,7 @@
         <v>335</v>
       </c>
       <c r="AB616" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="617" spans="1:28">
@@ -54327,7 +54324,7 @@
         <v>336</v>
       </c>
       <c r="AB617" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="618" spans="1:28">
@@ -54413,7 +54410,7 @@
         <v>336</v>
       </c>
       <c r="AB618" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="619" spans="1:28">
@@ -54499,7 +54496,7 @@
         <v>337</v>
       </c>
       <c r="AB619" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="620" spans="1:28">
@@ -54585,7 +54582,7 @@
         <v>337</v>
       </c>
       <c r="AB620" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="621" spans="1:28">
@@ -54671,7 +54668,7 @@
         <v>338</v>
       </c>
       <c r="AB621" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="622" spans="1:28">
@@ -54757,7 +54754,7 @@
         <v>338</v>
       </c>
       <c r="AB622" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="623" spans="1:28">
@@ -54843,7 +54840,7 @@
         <v>339</v>
       </c>
       <c r="AB623" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="624" spans="1:28">
@@ -54929,7 +54926,7 @@
         <v>339</v>
       </c>
       <c r="AB624" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="625" spans="1:28">
@@ -55015,7 +55012,7 @@
         <v>457</v>
       </c>
       <c r="AB625" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="626" spans="1:28">
@@ -55101,7 +55098,7 @@
         <v>457</v>
       </c>
       <c r="AB626" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="627" spans="1:28">
@@ -55187,7 +55184,7 @@
         <v>341</v>
       </c>
       <c r="AB627" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="628" spans="1:28">
@@ -55273,7 +55270,7 @@
         <v>341</v>
       </c>
       <c r="AB628" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="629" spans="1:28">
@@ -55359,7 +55356,7 @@
         <v>342</v>
       </c>
       <c r="AB629" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="630" spans="1:28">
@@ -55445,7 +55442,7 @@
         <v>342</v>
       </c>
       <c r="AB630" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="631" spans="1:28">
@@ -55531,7 +55528,7 @@
         <v>343</v>
       </c>
       <c r="AB631" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="632" spans="1:28">
@@ -55617,7 +55614,7 @@
         <v>343</v>
       </c>
       <c r="AB632" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="633" spans="1:28">
@@ -55703,7 +55700,7 @@
         <v>344</v>
       </c>
       <c r="AB633" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="634" spans="1:28">
@@ -55789,7 +55786,7 @@
         <v>344</v>
       </c>
       <c r="AB634" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="635" spans="1:28">
@@ -55875,7 +55872,7 @@
         <v>345</v>
       </c>
       <c r="AB635" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="636" spans="1:28">
@@ -55961,7 +55958,7 @@
         <v>345</v>
       </c>
       <c r="AB636" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="637" spans="1:28">
@@ -56047,7 +56044,7 @@
         <v>346</v>
       </c>
       <c r="AB637" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="638" spans="1:28">
@@ -56133,7 +56130,7 @@
         <v>346</v>
       </c>
       <c r="AB638" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="639" spans="1:28">
@@ -56219,7 +56216,7 @@
         <v>347</v>
       </c>
       <c r="AB639" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="640" spans="1:28">
@@ -56305,7 +56302,7 @@
         <v>347</v>
       </c>
       <c r="AB640" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="641" spans="1:28">
@@ -56391,7 +56388,7 @@
         <v>441</v>
       </c>
       <c r="AB641" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="642" spans="1:28">
@@ -56477,7 +56474,7 @@
         <v>441</v>
       </c>
       <c r="AB642" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="643" spans="1:28">
@@ -56563,7 +56560,7 @@
         <v>349</v>
       </c>
       <c r="AB643" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="644" spans="1:28">
@@ -56649,7 +56646,7 @@
         <v>349</v>
       </c>
       <c r="AB644" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="645" spans="1:28">
@@ -56735,7 +56732,7 @@
         <v>350</v>
       </c>
       <c r="AB645" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="646" spans="1:28">
@@ -56821,7 +56818,7 @@
         <v>350</v>
       </c>
       <c r="AB646" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="647" spans="1:28">
@@ -56907,7 +56904,7 @@
         <v>351</v>
       </c>
       <c r="AB647" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="648" spans="1:28">
@@ -56993,7 +56990,7 @@
         <v>351</v>
       </c>
       <c r="AB648" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="649" spans="1:28">
@@ -57079,7 +57076,7 @@
         <v>352</v>
       </c>
       <c r="AB649" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="650" spans="1:28">
@@ -57165,7 +57162,7 @@
         <v>352</v>
       </c>
       <c r="AB650" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="651" spans="1:28">
@@ -57251,7 +57248,7 @@
         <v>353</v>
       </c>
       <c r="AB651" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="652" spans="1:28">
@@ -57337,7 +57334,7 @@
         <v>353</v>
       </c>
       <c r="AB652" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="653" spans="1:28">
@@ -57423,7 +57420,7 @@
         <v>354</v>
       </c>
       <c r="AB653" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="654" spans="1:28">
@@ -57509,7 +57506,7 @@
         <v>354</v>
       </c>
       <c r="AB654" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="655" spans="1:28">
@@ -57595,7 +57592,7 @@
         <v>355</v>
       </c>
       <c r="AB655" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="656" spans="1:28">
@@ -57681,7 +57678,7 @@
         <v>355</v>
       </c>
       <c r="AB656" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="657" spans="1:28">
@@ -57767,7 +57764,7 @@
         <v>356</v>
       </c>
       <c r="AB657" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="658" spans="1:28">
@@ -57853,7 +57850,7 @@
         <v>356</v>
       </c>
       <c r="AB658" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="659" spans="1:28">
@@ -57939,7 +57936,7 @@
         <v>442</v>
       </c>
       <c r="AB659" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="660" spans="1:28">
@@ -58025,7 +58022,7 @@
         <v>442</v>
       </c>
       <c r="AB660" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="661" spans="1:28">
@@ -58111,7 +58108,7 @@
         <v>358</v>
       </c>
       <c r="AB661" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="662" spans="1:28">
@@ -58197,7 +58194,7 @@
         <v>358</v>
       </c>
       <c r="AB662" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="663" spans="1:28">
@@ -58283,7 +58280,7 @@
         <v>359</v>
       </c>
       <c r="AB663" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="664" spans="1:28">
@@ -58369,7 +58366,7 @@
         <v>359</v>
       </c>
       <c r="AB664" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="665" spans="1:28">
@@ -58455,7 +58452,7 @@
         <v>360</v>
       </c>
       <c r="AB665" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="666" spans="1:28">
@@ -58541,7 +58538,7 @@
         <v>360</v>
       </c>
       <c r="AB666" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="667" spans="1:28">
@@ -58627,7 +58624,7 @@
         <v>361</v>
       </c>
       <c r="AB667" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="668" spans="1:28">
@@ -58713,7 +58710,7 @@
         <v>361</v>
       </c>
       <c r="AB668" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="669" spans="1:28">
@@ -58796,10 +58793,10 @@
         <v>14.3</v>
       </c>
       <c r="AA669" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="AB669" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="670" spans="1:28">
@@ -58882,10 +58879,10 @@
         <v>32.5</v>
       </c>
       <c r="AA670" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="AB670" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="671" spans="1:28">
@@ -58971,7 +58968,7 @@
         <v>363</v>
       </c>
       <c r="AB671" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="672" spans="1:28">
@@ -59057,7 +59054,7 @@
         <v>363</v>
       </c>
       <c r="AB672" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="673" spans="1:28">
@@ -59143,7 +59140,7 @@
         <v>364</v>
       </c>
       <c r="AB673" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="674" spans="1:28">
@@ -59229,7 +59226,7 @@
         <v>364</v>
       </c>
       <c r="AB674" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="675" spans="1:28">
@@ -59315,7 +59312,7 @@
         <v>365</v>
       </c>
       <c r="AB675" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="676" spans="1:28">
@@ -59401,7 +59398,7 @@
         <v>365</v>
       </c>
       <c r="AB676" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="677" spans="1:28">
@@ -59487,7 +59484,7 @@
         <v>366</v>
       </c>
       <c r="AB677" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="678" spans="1:28">
@@ -59573,7 +59570,7 @@
         <v>366</v>
       </c>
       <c r="AB678" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="679" spans="1:28">
@@ -59659,7 +59656,7 @@
         <v>367</v>
       </c>
       <c r="AB679" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="680" spans="1:28">
@@ -59745,7 +59742,7 @@
         <v>367</v>
       </c>
       <c r="AB680" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="681" spans="1:28">
@@ -59831,7 +59828,7 @@
         <v>368</v>
       </c>
       <c r="AB681" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="682" spans="1:28">
@@ -59917,7 +59914,7 @@
         <v>368</v>
       </c>
       <c r="AB682" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="683" spans="1:28">
@@ -60003,7 +60000,7 @@
         <v>369</v>
       </c>
       <c r="AB683" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="684" spans="1:28">
@@ -60089,7 +60086,7 @@
         <v>369</v>
       </c>
       <c r="AB684" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="685" spans="1:28">
@@ -60175,7 +60172,7 @@
         <v>370</v>
       </c>
       <c r="AB685" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="686" spans="1:28">
@@ -60261,7 +60258,7 @@
         <v>370</v>
       </c>
       <c r="AB686" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="687" spans="1:28">
@@ -60347,7 +60344,7 @@
         <v>371</v>
       </c>
       <c r="AB687" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="688" spans="1:28">
@@ -60433,7 +60430,7 @@
         <v>371</v>
       </c>
       <c r="AB688" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="689" spans="1:28">
@@ -60519,7 +60516,7 @@
         <v>372</v>
       </c>
       <c r="AB689" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="690" spans="1:28">
@@ -60605,7 +60602,7 @@
         <v>372</v>
       </c>
       <c r="AB690" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="691" spans="1:28">
@@ -60691,7 +60688,7 @@
         <v>373</v>
       </c>
       <c r="AB691" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="692" spans="1:28">
@@ -60777,7 +60774,7 @@
         <v>373</v>
       </c>
       <c r="AB692" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="693" spans="1:28">
@@ -60863,7 +60860,7 @@
         <v>374</v>
       </c>
       <c r="AB693" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="694" spans="1:28">
@@ -60949,7 +60946,7 @@
         <v>374</v>
       </c>
       <c r="AB694" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="695" spans="1:28">
@@ -61032,10 +61029,10 @@
         <v>30.1</v>
       </c>
       <c r="AA695" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB695" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="696" spans="1:28">
@@ -61118,10 +61115,10 @@
         <v>31.5</v>
       </c>
       <c r="AA696" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AB696" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="697" spans="1:28">
@@ -61207,7 +61204,7 @@
         <v>376</v>
       </c>
       <c r="AB697" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="698" spans="1:28">
@@ -61293,7 +61290,7 @@
         <v>376</v>
       </c>
       <c r="AB698" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="699" spans="1:28">
@@ -61379,7 +61376,7 @@
         <v>377</v>
       </c>
       <c r="AB699" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="700" spans="1:28">
@@ -61465,7 +61462,7 @@
         <v>377</v>
       </c>
       <c r="AB700" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="701" spans="1:28">
@@ -61548,10 +61545,10 @@
         <v>33.3</v>
       </c>
       <c r="AA701" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB701" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="702" spans="1:28">
@@ -61634,10 +61631,10 @@
         <v>34.8</v>
       </c>
       <c r="AA702" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB702" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="703" spans="1:28">
@@ -61723,7 +61720,7 @@
         <v>379</v>
       </c>
       <c r="AB703" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="704" spans="1:28">
@@ -61809,7 +61806,7 @@
         <v>379</v>
       </c>
       <c r="AB704" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="705" spans="1:28">
@@ -61895,7 +61892,7 @@
         <v>380</v>
       </c>
       <c r="AB705" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="706" spans="1:28">
@@ -61981,7 +61978,7 @@
         <v>380</v>
       </c>
       <c r="AB706" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="707" spans="1:28">
@@ -62067,7 +62064,7 @@
         <v>381</v>
       </c>
       <c r="AB707" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="708" spans="1:28">
@@ -62153,7 +62150,7 @@
         <v>381</v>
       </c>
       <c r="AB708" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="709" spans="1:28">
@@ -62239,7 +62236,7 @@
         <v>382</v>
       </c>
       <c r="AB709" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="710" spans="1:28">
@@ -62325,7 +62322,7 @@
         <v>382</v>
       </c>
       <c r="AB710" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="711" spans="1:28">
@@ -62408,7 +62405,7 @@
         <v>29.9</v>
       </c>
       <c r="AA711" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB711" t="s">
         <v>418</v>
@@ -62494,7 +62491,7 @@
         <v>35.4</v>
       </c>
       <c r="AA712" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB712" t="s">
         <v>418</v>
@@ -62583,7 +62580,7 @@
         <v>384</v>
       </c>
       <c r="AB713" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="714" spans="1:28">
@@ -62669,7 +62666,7 @@
         <v>384</v>
       </c>
       <c r="AB714" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="715" spans="1:28">
@@ -62755,7 +62752,7 @@
         <v>385</v>
       </c>
       <c r="AB715" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="716" spans="1:28">
@@ -62841,7 +62838,7 @@
         <v>385</v>
       </c>
       <c r="AB716" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="717" spans="1:28">
@@ -62927,7 +62924,7 @@
         <v>386</v>
       </c>
       <c r="AB717" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="718" spans="1:28">
@@ -63013,7 +63010,7 @@
         <v>386</v>
       </c>
       <c r="AB718" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="719" spans="1:28">
@@ -63099,7 +63096,7 @@
         <v>444</v>
       </c>
       <c r="AB719" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="720" spans="1:28">
@@ -63185,7 +63182,7 @@
         <v>444</v>
       </c>
       <c r="AB720" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="721" spans="1:28">
@@ -63271,7 +63268,7 @@
         <v>388</v>
       </c>
       <c r="AB721" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="722" spans="1:28">
@@ -63357,7 +63354,7 @@
         <v>388</v>
       </c>
       <c r="AB722" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="723" spans="1:28">
@@ -63443,7 +63440,7 @@
         <v>389</v>
       </c>
       <c r="AB723" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="724" spans="1:28">
@@ -63529,7 +63526,7 @@
         <v>389</v>
       </c>
       <c r="AB724" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
